--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="568">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1517,6 +1517,204 @@
   </si>
   <si>
     <t>김동현</t>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>limjs1006@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>임진서</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>tibbit2@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>정윤재</t>
+  </si>
+  <si>
+    <t>hhuning8814@gmail.com</t>
+  </si>
+  <si>
+    <t>임지우</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>반도체전공</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>yoo040128@naver.com</t>
+  </si>
+  <si>
+    <t>유승주</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>kkj20040117@gmail.com</t>
+  </si>
+  <si>
+    <t>권경진</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>sshs0206@naver.com</t>
+  </si>
+  <si>
+    <t>최지민</t>
+  </si>
+  <si>
+    <t>wnyuna04@gmail.com</t>
+  </si>
+  <si>
+    <t>주윤아</t>
+  </si>
+  <si>
+    <t>whgdktlfgdj2@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학과</t>
+  </si>
+  <si>
+    <t>변용찬</t>
+  </si>
+  <si>
+    <t>sun21cc2@naver.com</t>
+  </si>
+  <si>
+    <t>이민규</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
+  </si>
+  <si>
+    <t>implibra88@gmail.com</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>amy001031@naver.com</t>
+  </si>
+  <si>
+    <t>전예림</t>
+  </si>
+  <si>
+    <t>minzero23@naver.com</t>
+  </si>
+  <si>
+    <t>동민영</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>cheis11@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT</t>
+  </si>
+  <si>
+    <t>김찬호</t>
+  </si>
+  <si>
+    <t>lceda1011@naver.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
   </si>
 </sst>
 </file>
@@ -10033,6 +10231,1195 @@
         <v>30</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45197.31843043982</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2.019212E7</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45197.33817297454</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2.0225116E7</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I203" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45197.44704128472</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2.0236424E7</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45197.47153313657</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2.0223208E7</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I205" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45197.49977454861</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2.021675E7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45197.51638327546</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2.0236635E7</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I207" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45197.51929116898</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.0196621E7</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I208" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45197.526552662035</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0183831E7</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I209" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45197.52754871528</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2.0193328E7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I210" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45197.5293978588</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D211" s="3">
+        <v>2.0235102E7</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I211" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45197.53260201389</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2.0232622E7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I212" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45197.53902321759</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2.0172428E7</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45197.54714079861</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.0236206E7</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I214" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45197.582066840274</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2.0222908E7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I215" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N215" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45197.58485546296</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0171605E7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I216" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45197.587365127314</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2.0217037E7</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I217" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45197.611929375</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.0236174E7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I218" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45197.63071157408</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2.0236294E7</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I219" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>45197.64753960648</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2.0181051E7</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I220" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45197.65846248843</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2.0235229E7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I221" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45197.69092635417</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2.023296E7</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I222" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45197.701006944444</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.0236142E7</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I223" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45197.723294930554</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2.0233711E7</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I224" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45197.76249700232</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2.0193426E7</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I225" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45197.779267743055</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2.0212945E7</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45197.78618502315</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2.0217055E7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I227" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45197.79770891204</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D228" s="3">
+        <v>2.0215154E7</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I228" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45197.80826010417</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D229" s="3">
+        <v>2.0195143E7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I229" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45197.816025555556</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.0233955E7</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="581">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1715,6 +1715,45 @@
   </si>
   <si>
     <t>이채은</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>dlwodms5596@naver.com</t>
+  </si>
+  <si>
+    <t>이재은</t>
+  </si>
+  <si>
+    <t>choeunland@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>송민혁</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>rlatjdnjs000@gmail.com</t>
+  </si>
+  <si>
+    <t>김서원</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
   </si>
 </sst>
 </file>
@@ -11420,6 +11459,252 @@
         <v>30</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45197.838965312505</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.0195157E7</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I231" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N231" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45197.84358883102</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2.0236631E7</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I232" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45197.86635023148</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.0181054E7</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I233" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45197.86945466435</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2.0233847E7</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I234" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45197.88549078704</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2.0202604E7</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45197.91552850694</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2.0236742E7</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I236" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="811">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1754,6 +1754,696 @@
   </si>
   <si>
     <t>양은채</t>
+  </si>
+  <si>
+    <t>seraphic_0913@naver.com</t>
+  </si>
+  <si>
+    <t>배윤서</t>
+  </si>
+  <si>
+    <t>sysy050300@naver.com</t>
+  </si>
+  <si>
+    <t>고서연</t>
+  </si>
+  <si>
+    <t>se0870@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>qkrwnsdud1019@gmail.com</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>sexytaegeun@gmail.com</t>
+  </si>
+  <si>
+    <t>성태근</t>
+  </si>
+  <si>
+    <t>teo48253@gmail.com</t>
+  </si>
+  <si>
+    <t>이수혁</t>
+  </si>
+  <si>
+    <t>judy030427@naver.com</t>
+  </si>
+  <si>
+    <t>오주영</t>
+  </si>
+  <si>
+    <t>hayeong206@gmail.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>dpwls040103@naver.com</t>
+  </si>
+  <si>
+    <t>pig6832@naver.com</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>asd1231077@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>20233825@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>엄서현</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>rhksan324@naver.com</t>
+  </si>
+  <si>
+    <t>이관무</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
+  </si>
+  <si>
+    <t>equi236@naver.com</t>
+  </si>
+  <si>
+    <t>박철웅</t>
+  </si>
+  <si>
+    <t>dltmdxo0123@naver.com</t>
+  </si>
+  <si>
+    <t>이승태</t>
+  </si>
+  <si>
+    <t>minho020122@gmail.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>mhkimghrhkd@naver.com</t>
+  </si>
+  <si>
+    <t>김민혁</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>pgw0814@gmail.com</t>
+  </si>
+  <si>
+    <t>박지우</t>
+  </si>
+  <si>
+    <t>sjb081235@naver.com</t>
+  </si>
+  <si>
+    <t>신종범</t>
+  </si>
+  <si>
+    <t>smart0403p@naver.com</t>
+  </si>
+  <si>
+    <t>kwangsik04@naver.com</t>
+  </si>
+  <si>
+    <t>성광식</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종</t>
+  </si>
+  <si>
+    <t>won993456@naver.com</t>
+  </si>
+  <si>
+    <t>정경원</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 국어국문학전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>dutmddus1219@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>여승연</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>aoa0226@naver.com</t>
+  </si>
+  <si>
+    <t>강문원</t>
+  </si>
+  <si>
+    <t>yoonsm4538@gmail.com</t>
+  </si>
+  <si>
+    <t>윤상민</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>kimkitty040510@gmail.com</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>123qazwsx12@naver.com</t>
+  </si>
+  <si>
+    <t>전예진</t>
+  </si>
+  <si>
+    <t>kilucas45@gmail.com</t>
+  </si>
+  <si>
+    <t>김동건</t>
+  </si>
+  <si>
+    <t>pjuns502@gmail.com</t>
+  </si>
+  <si>
+    <t>벅준현</t>
+  </si>
+  <si>
+    <t>hyeoni8635@daum.net</t>
+  </si>
+  <si>
+    <t>임서현</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>pouoqjs@naver.com</t>
+  </si>
+  <si>
+    <t>서준서</t>
+  </si>
+  <si>
+    <t>alscoco100@gmail.com</t>
+  </si>
+  <si>
+    <t>식품양양학과</t>
+  </si>
+  <si>
+    <t>김민채</t>
+  </si>
+  <si>
+    <t>040415kimdh@naver.com</t>
+  </si>
+  <si>
+    <t>spungseon@gmail.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>phyi0915@naver.com</t>
+  </si>
+  <si>
+    <t>백승진</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>iamjjum@naver.com</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>athboy3@gmail.com</t>
+  </si>
+  <si>
+    <t>안태현</t>
+  </si>
+  <si>
+    <t>wkdtngus2001@naver.com</t>
+  </si>
+  <si>
+    <t>장수현</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>sarah04113@naver.com</t>
+  </si>
+  <si>
+    <t>박사랑</t>
+  </si>
+  <si>
+    <t>smiledjwj@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>rhdskrud123@naver.com</t>
+  </si>
+  <si>
+    <t>공나경</t>
+  </si>
+  <si>
+    <t>mu3218712@naver.com</t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>im3790@naver.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>임진형</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>amielee1997@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>qodnwnop@naver.com</t>
+  </si>
+  <si>
+    <t>이우주</t>
+  </si>
+  <si>
+    <t>woojin984778@gmail.com</t>
+  </si>
+  <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>dongwoo2869@naver.com</t>
+  </si>
+  <si>
+    <t>남동우</t>
+  </si>
+  <si>
+    <t>jaejae7070@naver.com</t>
+  </si>
+  <si>
+    <t>이재빈</t>
+  </si>
+  <si>
+    <t>aissipar3@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보</t>
+  </si>
+  <si>
+    <t>김현채</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>0218mun@naver.com</t>
+  </si>
+  <si>
+    <t>강문희</t>
+  </si>
+  <si>
+    <t>1004soeun@naver.com</t>
+  </si>
+  <si>
+    <t>김소은</t>
+  </si>
+  <si>
+    <t>ryan.jin1005@gmail.com</t>
+  </si>
+  <si>
+    <t>진승재</t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>ggr1042@naver.com</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>odh4743@naver.com</t>
+  </si>
+  <si>
+    <t>오동훈</t>
+  </si>
+  <si>
+    <t>yantaijin1@naver.com</t>
+  </si>
+  <si>
+    <t>박종진</t>
+  </si>
+  <si>
+    <t>ntkrud0221@naver.com</t>
+  </si>
+  <si>
+    <t>노태경</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>llyrlyrll@naver.com</t>
+  </si>
+  <si>
+    <t>이예린</t>
+  </si>
+  <si>
+    <t>ke64276065@gmail.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>bogus418@naver.com</t>
+  </si>
+  <si>
+    <t>강경일</t>
+  </si>
+  <si>
+    <t>jinho2066@naver.com</t>
+  </si>
+  <si>
+    <t>염진호</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>hanbin0308@naver.com</t>
+  </si>
+  <si>
+    <t>한빈</t>
+  </si>
+  <si>
+    <t>kimeunjin829@naver.com</t>
+  </si>
+  <si>
+    <t>김은진</t>
+  </si>
+  <si>
+    <t>u01022994088@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어용합학과</t>
+  </si>
+  <si>
+    <t>구광모</t>
+  </si>
+  <si>
+    <t>clara9398@naver.com</t>
+  </si>
+  <si>
+    <t>양은지</t>
+  </si>
+  <si>
+    <t>dnjsdnuni@gmail.com</t>
+  </si>
+  <si>
+    <t>홍희선</t>
+  </si>
+  <si>
+    <t>sc4153349@gmail.com</t>
+  </si>
+  <si>
+    <t>차승윤</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>김도훈</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>emily_2003@naver.com</t>
+  </si>
+  <si>
+    <t>천예령</t>
+  </si>
+  <si>
+    <t>m.kwak2018@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회학과 </t>
+  </si>
+  <si>
+    <t>곽민수</t>
+  </si>
+  <si>
+    <t>yoon04817@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤서</t>
+  </si>
+  <si>
+    <t>justin0304299@naver.com</t>
+  </si>
+  <si>
+    <t>박기현</t>
+  </si>
+  <si>
+    <t>heojunhee@naver.com</t>
+  </si>
+  <si>
+    <t>허준희</t>
+  </si>
+  <si>
+    <t>kimyoung4808@gmail.com</t>
+  </si>
+  <si>
+    <t>김승영</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>yerin2545717@gmail.com</t>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>cilly03@naver.com</t>
+  </si>
+  <si>
+    <t>이예랑</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
   </si>
 </sst>
 </file>
@@ -11705,6 +12395,4680 @@
         <v>109</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45197.95116631944</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2.023272E7</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I237" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N237" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45197.96311552083</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.0232101E7</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I238" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45197.98165740741</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2.0232563E7</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I239" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45197.99425767361</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2.0235172E7</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I240" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45198.019413877315</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2.023623E7</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I241" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45198.022393865744</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.0222977E7</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I242" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45198.04488497685</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2.0232118E7</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I243" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45198.046130057875</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.023342E7</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I244" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45198.05129028935</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2.0236263E7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I245" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45198.09455184027</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2.023343E7</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I246" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N246" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45198.150262511575</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2.0236758E7</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I247" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45198.47651320602</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2.023274E7</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I248" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45198.53175850694</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2.0192614E7</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I249" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N249" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45198.58335917824</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.0233804E7</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I250" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N250" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>45198.59011671296</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2.0202992E7</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I251" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>45198.61801402778</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2.0235214E7</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I252" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>45198.63301344907</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2.0217095E7</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I253" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N253" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>45198.637957430554</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D254" s="3">
+        <v>2.0222614E7</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I254" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N254" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>45198.64398607639</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2.0233825E7</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I255" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45198.699529097226</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="3">
+        <v>2.0202742E7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I256" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45198.69994046296</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D257" s="3">
+        <v>2.0203001E7</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I257" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45198.711583067125</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258" s="3">
+        <v>2.0202972E7</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I258" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>45198.72067340278</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D259" s="3">
+        <v>2.0181617E7</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I259" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N259" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>45198.762467187495</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2.0202837E7</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I260" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M260" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>45198.77701474537</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D261" s="3">
+        <v>2.0212709E7</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I261" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N261" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>45198.797329594905</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D262" s="3">
+        <v>2.020411E7</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N262" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>45198.81941423611</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D263" s="3">
+        <v>2.0217122E7</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I263" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N263" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>45198.890401805555</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2.0203409E7</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I264" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>45198.89709732639</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D265" s="3">
+        <v>2.0232334E7</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I265" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N265" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>45198.91819434028</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D266" s="3">
+        <v>2.0232719E7</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I266" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>45198.9470802662</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D267" s="3">
+        <v>2.0233619E7</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I267" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L267" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>45198.97342469907</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D268" s="3">
+        <v>2.023517E7</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I268" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N268" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>45198.97686898148</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D269" s="3">
+        <v>2.0181095E7</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I269" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N269" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>45198.981009490744</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2.0194132E7</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I270" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M270" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>45199.00204162037</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2.0181088E7</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I271" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>45199.00283895833</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D272" s="3">
+        <v>2.0232829E7</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I272" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N272" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>45199.02189921297</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D273" s="3">
+        <v>2.0201217E7</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I273" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>45199.02317756944</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D274" s="3">
+        <v>2.019153E7</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I274" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>45199.02947310185</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D275" s="3">
+        <v>2.0201601E7</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I275" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N275" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>45199.034609849536</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D276" s="3">
+        <v>2.0221626E7</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I276" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N276" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>45199.05922969907</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D277" s="3">
+        <v>2.0232753E7</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I277" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N277" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>45199.06225263889</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D278" s="3">
+        <v>2.0232707E7</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I278" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>45199.08038817129</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" s="3">
+        <v>2.0236639E7</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I279" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L279" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>45199.08661738426</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D280" s="3">
+        <v>2.0233029E7</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I280" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N280" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>45199.088574803245</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281" s="3">
+        <v>2.0236604E7</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I281" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M281" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>45199.09026887731</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D282" s="3">
+        <v>2.0236617E7</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I282" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N282" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>45199.095433055554</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D283" s="3">
+        <v>2.0233426E7</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I283" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>45199.13281364583</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" s="3">
+        <v>2.0236636E7</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I284" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M284" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>45199.14017560185</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D285" s="3">
+        <v>2.0232969E7</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I285" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M285" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>45199.218347256945</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D286" s="3">
+        <v>2.0223806E7</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I286" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N286" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>45199.42335730324</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D287" s="3">
+        <v>2.0235119E7</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I287" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N287" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>45199.437920324075</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D288" s="3">
+        <v>2.0236219E7</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I288" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>45199.45860287037</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D289" s="3">
+        <v>2.0232967E7</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I289" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>45199.459633923616</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D290" s="3">
+        <v>2.0215173E7</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I290" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N290" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>45199.48710951389</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D291" s="3">
+        <v>2.0233606E7</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I291" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>45199.49458408565</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D292" s="3">
+        <v>2.0235199E7</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I292" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>45199.50773142361</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D293" s="3">
+        <v>2.0226423E7</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I293" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N293" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>45199.55128109954</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D294" s="3">
+        <v>2.0222616E7</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I294" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>45199.57144962963</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D295" s="3">
+        <v>2.020109E7</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I295" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N295" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>45199.572447071754</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D296" s="3">
+        <v>2.0235215E7</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I296" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M296" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>45199.59607996528</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D297" s="3">
+        <v>2.0232532E7</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I297" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>45199.612341678236</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D298" s="3">
+        <v>2.0231511E7</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I298" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>45199.62107381945</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D299" s="3">
+        <v>2.0231002E7</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I299" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N299" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>45199.64129494213</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D300" s="3">
+        <v>2.0211061E7</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I300" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N300" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>45199.64395049769</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D301" s="3">
+        <v>2.0203346E7</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I301" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M301" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>45199.6582700463</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D302" s="3">
+        <v>2.0236781E7</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I302" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N302" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>45199.65954756945</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D303" s="3">
+        <v>2.0232616E7</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I303" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N303" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>45199.66234498842</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D304" s="3">
+        <v>2.023161E7</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I304" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M304" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>45199.69568774306</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D305" s="3">
+        <v>2.0217159E7</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I305" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N305" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>45199.70816337963</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D306" s="3">
+        <v>2.0236217E7</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I306" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J306" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K306" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L306" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N306" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>45199.711763113424</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D307" s="3">
+        <v>2.023235E7</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I307" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M307" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>45199.71933408565</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D308" s="3">
+        <v>2.0236759E7</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I308" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J308" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K308" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M308" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>45199.72560975695</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D309" s="3">
+        <v>2.0202216E7</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M309" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>45199.73170116898</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D310" s="3">
+        <v>2.0221631E7</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I310" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M310" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>45199.74081361111</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D311" s="3">
+        <v>2.0232609E7</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I311" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N311" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>45199.745833113426</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D312" s="3">
+        <v>2.0222409E7</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I312" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M312" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>45199.74744802083</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D313" s="3">
+        <v>2.0212986E7</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I313" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>45199.75524304398</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D314" s="3">
+        <v>2.0232508E7</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I314" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N314" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>45199.769014502315</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D315" s="3">
+        <v>2.0193601E7</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I315" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N315" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>45199.79009776621</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D316" s="3">
+        <v>2.0232514E7</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I316" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N316" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>45199.79011163194</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D317" s="3">
+        <v>2.0192999E7</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I317" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N317" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>45199.806801122686</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D318" s="3">
+        <v>2.0222355E7</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I318" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N318" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>45199.84764136574</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D319" s="3">
+        <v>2.0221542E7</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I319" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M319" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>45199.86068770834</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D320" s="3">
+        <v>2.020234E7</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I320" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>45199.87149175926</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D321" s="3">
+        <v>2.0191517E7</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I321" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N321" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>45199.87423127315</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D322" s="3">
+        <v>2.0234118E7</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I322" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M322" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>45199.88058351852</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D323" s="3">
+        <v>2.0232426E7</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I323" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N323" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>45199.882472199075</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D324" s="3">
+        <v>2.0218001E7</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I324" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N324" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>45199.88506075232</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D325" s="3">
+        <v>2.0201627E7</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I325" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>45199.90779077546</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D326" s="3">
+        <v>2.0222728E7</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I326" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M326" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>45199.93223269676</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D327" s="3">
+        <v>2.0232428E7</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I327" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M327" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>45199.94048755787</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D328" s="3">
+        <v>2.0223705E7</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I328" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N328" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>45199.94404770833</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D329" s="3">
+        <v>2.0173701E7</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I329" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N329" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>45199.946388599536</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D330" s="3">
+        <v>2.0235207E7</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I330" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N330" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>45199.948586909726</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D331" s="3">
+        <v>2.0233906E7</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I331" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N331" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>45199.95799214121</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D332" s="3">
+        <v>2.0192441E7</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I332" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N332" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>45199.960101689816</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D333" s="3">
+        <v>2.0202321E7</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I333" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N333" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>45199.961431331016</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D334" s="3">
+        <v>2.0225111E7</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I334" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N334" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>45199.9675621412</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D335" s="3">
+        <v>2.0232552E7</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I335" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L335" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N335" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>45199.97627833333</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D336" s="3">
+        <v>2.0233969E7</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I336" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J336" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K336" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L336" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M336" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>45199.976606157405</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" s="3">
+        <v>2.0232138E7</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I337" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K337" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L337" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M337" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>45199.98074921296</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D338" s="3">
+        <v>2.0236204E7</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I338" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K338" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L338" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M338" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>45199.99986943287</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D339" s="3">
+        <v>2012708.0</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I339" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K339" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L339" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M339" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>45200.00802060185</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D340" s="3">
+        <v>2.023396E7</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I340" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K340" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L340" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N340" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>45200.02972770833</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D341" s="3">
+        <v>2.0222432E7</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I341" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>45200.03048685185</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D342" s="3">
+        <v>2.0182202E7</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I342" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N342" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>45200.033456805555</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D343" s="3">
+        <v>2.023677E7</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I343" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L343" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N343" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>45200.07306908564</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D344" s="3">
+        <v>2.0213515E7</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I344" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L344" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N344" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>45200.07672346065</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D345" s="3">
+        <v>2.0231106E7</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I345" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L345" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M345" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>45200.10293201389</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D346" s="3">
+        <v>2.0233709E7</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I346" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L346" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M346" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>45200.111513020835</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D347" s="3">
+        <v>2.02363E7</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I347" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L347" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N347" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>45200.151792662036</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D348" s="3">
+        <v>2.0232909E7</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I348" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K348" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L348" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M348" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>45200.157101770834</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D349" s="3">
+        <v>2.0221629E7</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I349" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M349" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>45200.16246839121</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2.0235171E7</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I350" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L350" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N350" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="905">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2444,6 +2444,288 @@
   </si>
   <si>
     <t>박주영</t>
+  </si>
+  <si>
+    <t>p.pla1226@gmail.com</t>
+  </si>
+  <si>
+    <t>박성곤</t>
+  </si>
+  <si>
+    <t>ksnkty123@naver.com</t>
+  </si>
+  <si>
+    <t>김태윤</t>
+  </si>
+  <si>
+    <t>wjddmsqjqtk@naver.com</t>
+  </si>
+  <si>
+    <t>신정은</t>
+  </si>
+  <si>
+    <t>lin031215@naver.com</t>
+  </si>
+  <si>
+    <t>jinwon4725@naver.com</t>
+  </si>
+  <si>
+    <t>장진원</t>
+  </si>
+  <si>
+    <t>chlwnsgur1202@gmail.com</t>
+  </si>
+  <si>
+    <t>최준혁</t>
+  </si>
+  <si>
+    <t>sjy01041864550@gmail.com</t>
+  </si>
+  <si>
+    <t>서진영</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>canty0917@gmail.com</t>
+  </si>
+  <si>
+    <t>조민주</t>
+  </si>
+  <si>
+    <t>rkgus8286@naver.com</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>amdo0421@gmail.com</t>
+  </si>
+  <si>
+    <t>이은빈</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>jsk8070@naver.com</t>
+  </si>
+  <si>
+    <t>김세아</t>
+  </si>
+  <si>
+    <t>leehakyung1207@gmail.com</t>
+  </si>
+  <si>
+    <t>이하경</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>kfic0221@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합부</t>
+  </si>
+  <si>
+    <t>서동욱</t>
+  </si>
+  <si>
+    <t>yoogyeonggg@naver.com</t>
+  </si>
+  <si>
+    <t>최유경</t>
+  </si>
+  <si>
+    <t>eksqk1234@naver.com</t>
+  </si>
+  <si>
+    <t>김정호</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>rin5920@naver.com</t>
+  </si>
+  <si>
+    <t>yjh110951@gmail.com</t>
+  </si>
+  <si>
+    <t>유정훈</t>
+  </si>
+  <si>
+    <t>jhyeong234@naver.com</t>
+  </si>
+  <si>
+    <t>김준형</t>
+  </si>
+  <si>
+    <t>gmyeongju515@gmail.com</t>
+  </si>
+  <si>
+    <t>김명주</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>bin85288@daum.net</t>
+  </si>
+  <si>
+    <t>김수빈</t>
+  </si>
+  <si>
+    <t>gilhk031111@naver.com</t>
+  </si>
+  <si>
+    <t>길혜균</t>
+  </si>
+  <si>
+    <t>vlxjvos2514@naver.com</t>
+  </si>
+  <si>
+    <t>홍성은</t>
+  </si>
+  <si>
+    <t>djdodhrghr@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학전공</t>
+  </si>
+  <si>
+    <t>송서현</t>
+  </si>
+  <si>
+    <t>mng437@naver.com</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>ysa8659@gmail.com</t>
+  </si>
+  <si>
+    <t>조성목</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>kgy5988@naver.com</t>
+  </si>
+  <si>
+    <t>김진범</t>
+  </si>
+  <si>
+    <t>dltndus004@naver.com</t>
+  </si>
+  <si>
+    <t>luis0815@naver.com</t>
+  </si>
+  <si>
+    <t>양지민</t>
+  </si>
+  <si>
+    <t>kdy3921633@naver.com</t>
+  </si>
+  <si>
+    <t>enjoy9675@gmail.com</t>
+  </si>
+  <si>
+    <t>곽아영</t>
+  </si>
+  <si>
+    <t>cozyandrelaxing2@gmail.com</t>
+  </si>
+  <si>
+    <t>이성민</t>
+  </si>
+  <si>
+    <t>parksiwoo1214@naver.com</t>
+  </si>
+  <si>
+    <t>박시우</t>
+  </si>
+  <si>
+    <t>kdh01270102@gmail.com</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>lhe0209@naver.com</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>jinhwanjeong8@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>t26a1@naver.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>신동한</t>
+  </si>
+  <si>
+    <t>seongmo0731@naver.com</t>
+  </si>
+  <si>
+    <t>조성모</t>
+  </si>
+  <si>
+    <t>gys5785@naver.com</t>
+  </si>
+  <si>
+    <t>고형승</t>
+  </si>
+  <si>
+    <t>2003lsa@naver.com</t>
+  </si>
+  <si>
+    <t>이수아</t>
+  </si>
+  <si>
+    <t>srankhanwoo@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬우</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
   </si>
 </sst>
 </file>
@@ -17069,6 +17351,1974 @@
         <v>30</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>45200.43998547454</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D351" s="3">
+        <v>2.0236127E7</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I351" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K351" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L351" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M351" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>45200.4411203125</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D352" s="3">
+        <v>2.0232526E7</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I352" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L352" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M352" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>45200.454274351854</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D353" s="3">
+        <v>2.0221714E7</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I353" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K353" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L353" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N353" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>45200.45640335648</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D354" s="3">
+        <v>2.022257E7</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I354" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L354" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N354" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>45200.47288771991</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D355" s="3">
+        <v>2.0232355E7</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I355" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L355" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M355" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>45200.47609123842</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D356" s="3">
+        <v>2.0236783E7</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I356" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L356" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N356" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>45200.48409907408</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D357" s="3">
+        <v>2.023662E7</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I357" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L357" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N357" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>45200.48547774306</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D358" s="3">
+        <v>2.0221054E7</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I358" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J358" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L358" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N358" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>45200.52465918982</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D359" s="3">
+        <v>2.0232363E7</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I359" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J359" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K359" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L359" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M359" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>45200.54336981481</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D360" s="3">
+        <v>2.0233729E7</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I360" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L360" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M360" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>45200.56752174768</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D361" s="3">
+        <v>2.0236278E7</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I361" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J361" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L361" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N361" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>45200.57041704861</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D362" s="3">
+        <v>2.01853E7</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I362" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J362" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L362" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M362" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>45200.571493344905</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D363" s="3">
+        <v>2.0207064E7</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I363" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J363" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L363" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M363" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>45200.57198850694</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D364" s="3">
+        <v>2.0235245E7</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I364" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J364" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L364" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N364" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>45200.57284868056</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D365" s="3">
+        <v>2.0226647E7</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I365" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J365" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L365" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M365" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>45200.601273101856</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D366" s="3">
+        <v>2.0236733E7</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I366" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L366" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M366" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>45200.606520601854</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D367" s="3">
+        <v>2.0231238E7</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I367" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J367" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L367" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M367" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>45200.60901891204</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D368" s="3">
+        <v>2.0235143E7</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I368" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J368" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L368" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M368" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>45200.61657622685</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D369" s="3">
+        <v>2.0236764E7</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I369" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J369" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L369" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N369" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>45200.622516979165</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D370" s="3">
+        <v>2.0233425E7</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I370" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L370" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M370" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>45200.62487842592</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D371" s="3">
+        <v>2.0232995E7</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I371" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J371" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L371" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M371" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>45200.64587275463</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D372" s="3">
+        <v>2.0232935E7</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I372" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L372" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M372" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>45200.64671152778</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D373" s="3">
+        <v>2.0213606E7</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I373" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J373" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K373" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L373" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N373" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>45200.64722974537</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D374" s="3">
+        <v>2.0182556E7</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I374" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J374" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L374" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N374" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>45200.66121078704</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D375" s="3">
+        <v>2.0231016E7</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I375" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J375" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L375" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M375" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>45200.669981203704</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D376" s="3">
+        <v>2.0233204E7</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I376" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J376" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K376" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L376" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M376" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>45200.67504236111</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D377" s="3">
+        <v>2.0203739E7</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I377" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J377" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K377" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L377" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M377" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>45200.678803229166</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D378" s="3">
+        <v>2.0216618E7</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I378" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J378" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K378" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L378" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M378" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>45200.68072297453</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D379" s="3">
+        <v>2.0232105E7</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I379" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J379" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L379" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M379" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>45200.68523962963</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D380" s="3">
+        <v>2.0223537E7</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I380" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J380" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L380" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N380" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>45200.690439618054</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D381" s="3">
+        <v>2.0231201E7</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I381" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J381" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K381" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L381" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N381" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>45200.69545263889</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D382" s="3">
+        <v>2.0203214E7</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I382" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J382" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K382" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L382" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N382" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2">
+        <v>45200.69868436342</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D383" s="3">
+        <v>2.0232627E7</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I383" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J383" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K383" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L383" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M383" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2">
+        <v>45200.69959184028</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D384" s="3">
+        <v>2.0232336E7</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I384" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J384" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K384" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L384" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M384" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2">
+        <v>45200.71503049768</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D385" s="3">
+        <v>2.0232604E7</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I385" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J385" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K385" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L385" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M385" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2">
+        <v>45200.71655159722</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D386" s="3">
+        <v>2.0213801E7</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I386" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J386" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K386" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L386" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N386" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2">
+        <v>45200.719095057866</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D387" s="3">
+        <v>2.0223725E7</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I387" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J387" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K387" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L387" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N387" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2">
+        <v>45200.72367851852</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D388" s="3">
+        <v>2.0193219E7</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I388" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J388" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K388" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L388" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N388" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2">
+        <v>45200.74414663194</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D389" s="3">
+        <v>2.0212707E7</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I389" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J389" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K389" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L389" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N389" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2">
+        <v>45200.75007032407</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D390" s="3">
+        <v>2.0233824E7</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I390" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J390" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K390" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L390" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N390" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2">
+        <v>45200.75370494213</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D391" s="3">
+        <v>2.0213024E7</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I391" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J391" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K391" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L391" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M391" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2">
+        <v>45200.75423548611</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D392" s="3">
+        <v>2.0236776E7</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I392" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J392" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L392" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N392" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2">
+        <v>45200.75791446759</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D393" s="3">
+        <v>2.0193331E7</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I393" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J393" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K393" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L393" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M393" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2">
+        <v>45200.76084204861</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2.0192988E7</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I394" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J394" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L394" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N394" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2">
+        <v>45200.76101163194</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D395" s="3">
+        <v>2.0232402E7</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I395" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J395" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L395" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N395" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2">
+        <v>45200.761141006944</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D396" s="3">
+        <v>2.0223E7</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H396" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I396" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J396" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L396" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N396" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2">
+        <v>45200.776628576394</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D397" s="3">
+        <v>2.0226175E7</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I397" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J397" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K397" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L397" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N397" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2">
+        <v>45200.77741887732</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D398" s="3">
+        <v>2.0182889E7</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I398" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J398" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K398" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L398" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N398" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="959">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2726,6 +2726,168 @@
   </si>
   <si>
     <t>서대철</t>
+  </si>
+  <si>
+    <t>thsdlstn99@gmail.com</t>
+  </si>
+  <si>
+    <t>이인수</t>
+  </si>
+  <si>
+    <t>hanyong0302@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학</t>
+  </si>
+  <si>
+    <t>김한용</t>
+  </si>
+  <si>
+    <t>kddong99@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>wlalsdlcjm4@naver.com</t>
+  </si>
+  <si>
+    <t>차지민</t>
+  </si>
+  <si>
+    <t>jjsuk9702@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>김선혁</t>
+  </si>
+  <si>
+    <t>kimbitna7890@naver.com</t>
+  </si>
+  <si>
+    <t>김빛나</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.vom</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>bulbap03@gmail.com</t>
+  </si>
+  <si>
+    <t>변성혁</t>
+  </si>
+  <si>
+    <t>choeeun1502@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>mingye990410@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>rlfwldnjs04@naver.com</t>
+  </si>
+  <si>
+    <t>길지원</t>
+  </si>
+  <si>
+    <t>zra9751@naver.com</t>
+  </si>
+  <si>
+    <t>박찬모</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 법학과</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>spb012@naver.com</t>
+  </si>
+  <si>
+    <t>모수빈</t>
+  </si>
+  <si>
+    <t>duddndywjd@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t>송영우</t>
+  </si>
+  <si>
+    <t>choihyobin0128@naver.com</t>
+  </si>
+  <si>
+    <t>최효빈</t>
+  </si>
+  <si>
+    <t>ncc11068@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생명과학과 </t>
+  </si>
+  <si>
+    <t>이규린</t>
+  </si>
+  <si>
+    <t>jinseo860@gmail.com</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>ljh2017@naver.com</t>
+  </si>
+  <si>
+    <t>이정효</t>
+  </si>
+  <si>
+    <t>dldmlcks56@gmail.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>hanhj0223@gmail.com</t>
+  </si>
+  <si>
+    <t>한형준</t>
+  </si>
+  <si>
+    <t>yjeong2687@naver.com</t>
+  </si>
+  <si>
+    <t>유정현</t>
   </si>
 </sst>
 </file>
@@ -19319,6 +19481,990 @@
         <v>109</v>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" s="2">
+        <v>45200.77849237269</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D399" s="3">
+        <v>2.0182749E7</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I399" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J399" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K399" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L399" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N399" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2">
+        <v>45200.78755302083</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D400" s="3">
+        <v>2.0233513E7</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I400" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J400" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K400" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L400" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N400" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2">
+        <v>45200.79611321759</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D401" s="3">
+        <v>2.0181205E7</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I401" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J401" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L401" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M401" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2">
+        <v>45200.80067503473</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D402" s="3">
+        <v>2.0202741E7</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I402" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J402" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K402" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L402" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N402" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2">
+        <v>45200.805651793984</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D403" s="3">
+        <v>2.0236296E7</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I403" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J403" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L403" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N403" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2">
+        <v>45200.81903890046</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D404" s="3">
+        <v>2.0217141E7</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I404" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J404" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L404" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N404" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2">
+        <v>45200.82341844907</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D405" s="3">
+        <v>2.0222609E7</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I405" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J405" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K405" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L405" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N405" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2">
+        <v>45200.823492951386</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D406" s="3">
+        <v>2.023171E7</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I406" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J406" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L406" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N406" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2">
+        <v>45200.82433440972</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2.0233224E7</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I407" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J407" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K407" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L407" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M407" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2">
+        <v>45200.83222434028</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2.0233253E7</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I408" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J408" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K408" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L408" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N408" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2">
+        <v>45200.83366390046</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D409" s="3">
+        <v>2.0183639E7</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I409" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J409" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L409" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M409" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2">
+        <v>45200.8354956713</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2.0232703E7</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I410" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J410" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K410" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L410" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M410" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2">
+        <v>45200.83617732639</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D411" s="3">
+        <v>2.0202965E7</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I411" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J411" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K411" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L411" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M411" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2">
+        <v>45200.837705196755</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2.0193926E7</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I412" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J412" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K412" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L412" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N412" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2">
+        <v>45200.85061876157</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D413" s="3">
+        <v>2.0162715E7</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I413" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J413" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K413" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L413" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N413" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2">
+        <v>45200.85906664352</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D414" s="3">
+        <v>2.023253E7</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I414" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J414" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K414" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L414" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N414" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2">
+        <v>45200.87014982638</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2.0223721E7</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I415" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J415" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K415" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L415" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N415" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2">
+        <v>45200.87699909722</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2.0233058E7</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I416" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J416" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K416" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L416" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N416" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2">
+        <v>45200.88424453704</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D417" s="3">
+        <v>2.0233529E7</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I417" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J417" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K417" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L417" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N417" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2">
+        <v>45200.89554337963</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2.0233518E7</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I418" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J418" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N418" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2">
+        <v>45200.89559212963</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D419" s="3">
+        <v>2.0181079E7</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I419" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J419" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N419" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2">
+        <v>45200.89892876157</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D420" s="3">
+        <v>2.0173144E7</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I420" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J420" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K420" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N420" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2">
+        <v>45200.90060725695</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D421" s="3">
+        <v>2.0233966E7</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I421" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J421" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K421" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N421" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2">
+        <v>45200.92476583333</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2.0221525E7</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I422" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J422" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K422" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M422" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="991">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2888,6 +2888,102 @@
   </si>
   <si>
     <t>유정현</t>
+  </si>
+  <si>
+    <t>sumin102573@naver.com</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>limmh96@gmail.com</t>
+  </si>
+  <si>
+    <t>임민호</t>
+  </si>
+  <si>
+    <t>scw0922@naver.com</t>
+  </si>
+  <si>
+    <t>신채원</t>
+  </si>
+  <si>
+    <t>harin3040@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>shanesun0923@gmail.com</t>
+  </si>
+  <si>
+    <t>선세인</t>
+  </si>
+  <si>
+    <t>sung93716@gmail.com</t>
+  </si>
+  <si>
+    <t>한예림</t>
+  </si>
+  <si>
+    <t>molly7624@naver.com</t>
+  </si>
+  <si>
+    <t>변재은</t>
+  </si>
+  <si>
+    <t>choe0119@gmail.com</t>
+  </si>
+  <si>
+    <t>최태웅</t>
+  </si>
+  <si>
+    <t>dksdksqh1018@naver.com</t>
+  </si>
+  <si>
+    <t>안보민</t>
+  </si>
+  <si>
+    <t>gaejisub@gmail.com</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>gustj1654@naver.com</t>
+  </si>
+  <si>
+    <t>조현서</t>
+  </si>
+  <si>
+    <t>yejin4259@naver.com</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>kxjenlee@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>이제인</t>
+  </si>
+  <si>
+    <t>tjdus3641@gmail.com</t>
+  </si>
+  <si>
+    <t>장서연</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>권가빈</t>
   </si>
 </sst>
 </file>
@@ -20465,6 +20561,662 @@
         <v>22</v>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" s="2">
+        <v>45200.93687467593</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2.0212922E7</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I423" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J423" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K423" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M423" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2">
+        <v>45200.93968752315</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2.0232632E7</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I424" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J424" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K424" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L424" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M424" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2">
+        <v>45200.94147167824</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D425" s="3">
+        <v>2.0236256E7</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I425" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J425" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K425" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L425" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N425" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>45200.94627571759</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2.0232113E7</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I426" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J426" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K426" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M426" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2">
+        <v>45200.947467094906</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2.0236253E7</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I427" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J427" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K427" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M427" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2">
+        <v>45200.95396979166</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2.0233261E7</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I428" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K428" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L428" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M428" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2">
+        <v>45200.95795295139</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2.0211516E7</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I429" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J429" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K429" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M429" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2">
+        <v>45200.96560776621</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2.0226176E7</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I430" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K430" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L430" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M430" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2">
+        <v>45200.970568564815</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2.0232549E7</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I431" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K431" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N431" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2">
+        <v>45200.97358670139</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D432" s="3">
+        <v>2.0225169E7</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I432" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J432" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K432" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L432" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N432" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2">
+        <v>45200.98353868056</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2.0232137E7</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I433" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J433" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K433" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L433" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N433" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2">
+        <v>45200.98789751157</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2.0233951E7</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I434" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J434" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K434" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L434" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M434" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2">
+        <v>45200.99348971064</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2.0213827E7</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I435" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J435" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K435" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M435" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2">
+        <v>45200.99731702547</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2.0226417E7</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I436" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J436" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K436" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L436" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M436" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2">
+        <v>45201.00346453703</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D437" s="3">
+        <v>2.0226283E7</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I437" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J437" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K437" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L437" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M437" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2">
+        <v>45201.00409956019</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2.0236205E7</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I438" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K438" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N438" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="1024">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2984,6 +2984,105 @@
   </si>
   <si>
     <t>권가빈</t>
+  </si>
+  <si>
+    <t>nanadiana222@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>조희진</t>
+  </si>
+  <si>
+    <t>gumamunu@naver.com</t>
+  </si>
+  <si>
+    <t>김지영</t>
+  </si>
+  <si>
+    <t>hi8964@naver.com</t>
+  </si>
+  <si>
+    <t>윤태규</t>
+  </si>
+  <si>
+    <t>u6221004@naver.com</t>
+  </si>
+  <si>
+    <t>엄서진</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>kswon115@naver.com</t>
+  </si>
+  <si>
+    <t>김시원</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>kgh15820@naver.com</t>
+  </si>
+  <si>
+    <t>김가현</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>srhst1130@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>윤하은</t>
+  </si>
+  <si>
+    <t>qpfhslzk0323@naver.com</t>
+  </si>
+  <si>
+    <t>김윤설</t>
+  </si>
+  <si>
+    <t>cje03112@naver.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
   </si>
 </sst>
 </file>
@@ -21217,6 +21316,662 @@
         <v>109</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>45201.016206099535</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D439" s="3">
+        <v>2.0225261E7</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I439" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J439" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K439" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L439" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M439" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>45201.021071400464</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2.0236229E7</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I440" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J440" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K440" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L440" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N440" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>45201.03221826389</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2.0236646E7</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I441" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J441" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K441" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N441" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>45201.066806574076</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D442" s="3">
+        <v>2.020342E7</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I442" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K442" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L442" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M442" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2">
+        <v>45201.15492112268</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2.0211051E7</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I443" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J443" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K443" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L443" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M443" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2">
+        <v>45201.63150888889</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2.0216258E7</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I444" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K444" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L444" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M444" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2">
+        <v>45201.70307747685</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2.023293E7</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I445" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J445" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K445" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L445" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M445" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2">
+        <v>45201.731553819445</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2.0163118E7</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I446" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K446" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L446" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M446" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2">
+        <v>45201.760776111114</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2.0201503E7</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I447" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J447" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K447" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L447" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M447" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2">
+        <v>45201.78085924769</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2.0212621E7</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I448" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J448" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K448" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L448" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M448" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2">
+        <v>45201.78204672453</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2.022676E7</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I449" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J449" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K449" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L449" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M449" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2">
+        <v>45201.83247959491</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2.022297E7</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I450" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K450" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L450" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M450" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2">
+        <v>45201.840788761576</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2.0191066E7</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I451" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J451" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L451" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N451" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2">
+        <v>45201.983751631946</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2.0232713E7</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I452" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K452" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L452" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N452" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2">
+        <v>45201.9843029051</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2.018258E7</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I453" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J453" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K453" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L453" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N453" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>45202.01020967592</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2.0236236E7</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I454" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J454" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K454" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L454" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N454" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="1059">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3083,6 +3083,111 @@
   </si>
   <si>
     <t>박미현</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>dnjsgmlwjd1020@naver.com</t>
+  </si>
+  <si>
+    <t>원희정</t>
+  </si>
+  <si>
+    <t>giovanni1199@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학부</t>
+  </si>
+  <si>
+    <t>신재현</t>
+  </si>
+  <si>
+    <t>20233814@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>doctykbw@gmail.com</t>
+  </si>
+  <si>
+    <t>김범우</t>
+  </si>
+  <si>
+    <t>kutae1228@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체디스플레이스쿨/ 반도체 전공 </t>
+  </si>
+  <si>
+    <t>구태환</t>
+  </si>
+  <si>
+    <t>20217134@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>장효경</t>
+  </si>
+  <si>
+    <t>rbtkd0j25@gmail.com</t>
+  </si>
+  <si>
+    <t>김규상</t>
+  </si>
+  <si>
+    <t>dlawlals1669@naver.com</t>
+  </si>
+  <si>
+    <t>임지민</t>
+  </si>
+  <si>
+    <t>ee2243@naver.com</t>
+  </si>
+  <si>
+    <t>정주연</t>
+  </si>
+  <si>
+    <t>tvkim0122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태빈</t>
+  </si>
+  <si>
+    <t>yusoyun03@gmail.com</t>
+  </si>
+  <si>
+    <t>유소연</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>pop8976@naver.com</t>
+  </si>
+  <si>
+    <t>최시현</t>
+  </si>
+  <si>
+    <t>hyeeun7356@naver.com</t>
+  </si>
+  <si>
+    <t>유혜은</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
   </si>
 </sst>
 </file>
@@ -21972,6 +22077,703 @@
         <v>109</v>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>45202.057091712966</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2.0205265E7</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I455" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K455" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L455" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M455" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2">
+        <v>45202.148726203704</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2.0231057E7</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I456" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J456" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K456" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L456" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N456" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>45202.382089328705</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2.02352E7</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I457" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J457" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K457" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L457" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N457" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>45202.41207831018</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2.0233814E7</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I458" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K458" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L458" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N458" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2">
+        <v>45202.635270694445</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D459" s="3">
+        <v>2.0226111E7</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I459" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J459" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K459" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L459" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N459" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2">
+        <v>45202.67849153935</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2.0183301E7</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I460" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J460" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K460" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L460" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M460" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2">
+        <v>45202.69642443287</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D461" s="3">
+        <v>2.0217134E7</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I461" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J461" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K461" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L461" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M461" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2">
+        <v>45202.70474461805</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D462" s="3">
+        <v>2.0236212E7</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I462" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J462" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K462" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L462" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M462" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2">
+        <v>45202.71592457176</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2.0231537E7</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I463" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J463" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K463" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L463" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M463" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2">
+        <v>45202.73766042824</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D464" s="3">
+        <v>2.0232362E7</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I464" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J464" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K464" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L464" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M464" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2">
+        <v>45202.74085625</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D465" s="3">
+        <v>2.0203314E7</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I465" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J465" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K465" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L465" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M465" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2">
+        <v>45202.74131916667</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D466" s="3">
+        <v>2.0236745E7</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I466" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L466" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N466" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2">
+        <v>45202.842964131945</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D467" s="3">
+        <v>2.0232636E7</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I467" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J467" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K467" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L467" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N467" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2">
+        <v>45202.84710936343</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D468" s="3">
+        <v>2.0232302E7</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I468" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K468" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L468" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M468" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2">
+        <v>45202.88989309028</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2.0232756E7</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H469" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I469" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J469" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K469" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L469" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M469" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2">
+        <v>45202.93562892361</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D470" s="3">
+        <v>2.0203824E7</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H470" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I470" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J470" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K470" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L470" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N470" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2">
+        <v>45202.93594501157</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D471" s="3">
+        <v>2.0212837E7</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H471" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I471" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J471" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K471" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L471" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N471" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="1259">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3188,6 +3188,606 @@
   </si>
   <si>
     <t>임상헌</t>
+  </si>
+  <si>
+    <t>hoverdahee@gmail.com</t>
+  </si>
+  <si>
+    <t>김다희</t>
+  </si>
+  <si>
+    <t>dlgusqqls@gmail.com</t>
+  </si>
+  <si>
+    <t>이현빈</t>
+  </si>
+  <si>
+    <t>applegoose007@gmail.com</t>
+  </si>
+  <si>
+    <t>장재훈</t>
+  </si>
+  <si>
+    <t>poliku8630@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT</t>
+  </si>
+  <si>
+    <t>심지혁</t>
+  </si>
+  <si>
+    <t>b0612river@gmail.com</t>
+  </si>
+  <si>
+    <t>최정원</t>
+  </si>
+  <si>
+    <t>rlaalswl9362@naver.com</t>
+  </si>
+  <si>
+    <t>ai로봇융합</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>hane37@gmail.com</t>
+  </si>
+  <si>
+    <t>정보법과학</t>
+  </si>
+  <si>
+    <t>김동규</t>
+  </si>
+  <si>
+    <t>julielie@nate.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>b1a46317@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>serf0403@naver.com</t>
+  </si>
+  <si>
+    <t>정예선</t>
+  </si>
+  <si>
+    <t>dbstn5721@naver.com</t>
+  </si>
+  <si>
+    <t>김윤수</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t>wnsaus_0522@naver.com</t>
+  </si>
+  <si>
+    <t>진희원</t>
+  </si>
+  <si>
+    <t>shni92@naver.com</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>sherisim@naver.com</t>
+  </si>
+  <si>
+    <t>심시원</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>jongbaep17s@gmail.com</t>
+  </si>
+  <si>
+    <t>박종배</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>rjsdnjs0711@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>서건원</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>gabiekook040907@gmail.com</t>
+  </si>
+  <si>
+    <t>장형욱</t>
+  </si>
+  <si>
+    <t>sojeongy39@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소정</t>
+  </si>
+  <si>
+    <t>xortl0522@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>김택민</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>jeongseo.kim25@gmail.com</t>
+  </si>
+  <si>
+    <t>김정서</t>
+  </si>
+  <si>
+    <t>sang010516@naver.com</t>
+  </si>
+  <si>
+    <t>최상은</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>yenaridia@naver.com</t>
+  </si>
+  <si>
+    <t>최예나</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>daffodil1215@gmail.com</t>
+  </si>
+  <si>
+    <t>임원준</t>
+  </si>
+  <si>
+    <t>bravemw2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>태민우</t>
+  </si>
+  <si>
+    <t>ksh20637727@gmail.com</t>
+  </si>
+  <si>
+    <t>김성현</t>
+  </si>
+  <si>
+    <t>nayoung040713@naver.com</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>tpdls1323@naver.com</t>
+  </si>
+  <si>
+    <t>장세인</t>
+  </si>
+  <si>
+    <t>kmspse0405@naver.com</t>
+  </si>
+  <si>
+    <t>박세은</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>xpjungwoo0518@kakao.com</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>jhs120600@naver.com</t>
+  </si>
+  <si>
+    <t>장현성</t>
+  </si>
+  <si>
+    <t>kongpo7097@gmail.com</t>
+  </si>
+  <si>
+    <t>ㅏ회복지학ㅂ</t>
+  </si>
+  <si>
+    <t>장예현</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>chldydnjs123@naver.com</t>
+  </si>
+  <si>
+    <t>최요원</t>
+  </si>
+  <si>
+    <t>theyubin@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>tkddnjs8070@naver.com</t>
+  </si>
+  <si>
+    <t>정상원</t>
+  </si>
+  <si>
+    <t>jihongg0531@gmail.com</t>
+  </si>
+  <si>
+    <t>김지홍</t>
+  </si>
+  <si>
+    <t>ssw12099@naver.com</t>
+  </si>
+  <si>
+    <t>소선웅</t>
+  </si>
+  <si>
+    <t>gimchaemin97@gmail.com</t>
+  </si>
+  <si>
+    <t>김채민</t>
+  </si>
+  <si>
+    <t>kjh2715c@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>sujh7021@naver.com</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>limhyuksang@naver.com</t>
+  </si>
+  <si>
+    <t>임혁상</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>kimi9923@naver.com</t>
+  </si>
+  <si>
+    <t>정민우</t>
+  </si>
+  <si>
+    <t>audwlswlghd7@naver.com</t>
+  </si>
+  <si>
+    <t>신명진</t>
+  </si>
+  <si>
+    <t>lian_ycm@naver.com</t>
+  </si>
+  <si>
+    <t>유채민</t>
+  </si>
+  <si>
+    <t>teslahan21@gmail.com</t>
+  </si>
+  <si>
+    <t>한태웅</t>
+  </si>
+  <si>
+    <t>khjkhj0314@naver.com</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>duhyeon120@naver.com</t>
+  </si>
+  <si>
+    <t>남두현</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>ub030801@naver.com</t>
+  </si>
+  <si>
+    <t>신유빈</t>
+  </si>
+  <si>
+    <t>seoungho990101@gmail.com</t>
+  </si>
+  <si>
+    <t>채육학과</t>
+  </si>
+  <si>
+    <t>이승호</t>
+  </si>
+  <si>
+    <t>zdfxd3611@naver.com</t>
+  </si>
+  <si>
+    <t>이현태</t>
+  </si>
+  <si>
+    <t>werty1082@naver.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>youngsoo051400@naver.com</t>
+  </si>
+  <si>
+    <t>최영수</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 빅데이터전공</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>gawon9707@gmail.com</t>
+  </si>
+  <si>
+    <t>이가원</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>seo1020102p@naver.com</t>
+  </si>
+  <si>
+    <t>박재연</t>
+  </si>
+  <si>
+    <t>jyk9247@naver.com</t>
+  </si>
+  <si>
+    <t>정윤경</t>
+  </si>
+  <si>
+    <t>areana1053@naver.com</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>dennis121691@gmail.com</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>homework0810@naver.com</t>
+  </si>
+  <si>
+    <t>지승현</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>a01035025756@gmail.com</t>
+  </si>
+  <si>
+    <t>이건희</t>
+  </si>
+  <si>
+    <t>xhaexeon@naver.com</t>
+  </si>
+  <si>
+    <t>sanghyeongim33@naver.com</t>
+  </si>
+  <si>
+    <t>김상현</t>
+  </si>
+  <si>
+    <t>tjdbs6201305@naver.com</t>
+  </si>
+  <si>
+    <t>송서윤</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
   </si>
 </sst>
 </file>
@@ -22774,6 +23374,4024 @@
         <v>22</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="2">
+        <v>45202.99309775463</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D472" s="3">
+        <v>2.0233912E7</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H472" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I472" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J472" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K472" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L472" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N472" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2">
+        <v>45202.99702880787</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D473" s="3">
+        <v>2.0233635E7</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H473" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I473" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J473" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K473" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L473" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N473" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2">
+        <v>45203.03187262731</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D474" s="3">
+        <v>2.0225243E7</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H474" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I474" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J474" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L474" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N474" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2">
+        <v>45203.04799144676</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D475" s="3">
+        <v>2.0205197E7</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H475" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I475" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J475" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K475" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M475" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2">
+        <v>45203.081896655094</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D476" s="3">
+        <v>2.0232638E7</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H476" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I476" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J476" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K476" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L476" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N476" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2">
+        <v>45203.3813280787</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D477" s="3">
+        <v>2.0226712E7</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H477" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I477" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J477" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K477" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L477" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N477" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2">
+        <v>45203.39741306713</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D478" s="3">
+        <v>2.0207091E7</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H478" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I478" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J478" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K478" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L478" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N478" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2">
+        <v>45203.45578858796</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D479" s="3">
+        <v>2.0233638E7</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H479" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I479" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J479" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L479" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N479" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2">
+        <v>45203.46334321759</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D480" s="3">
+        <v>2.0226405E7</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H480" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I480" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L480" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M480" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2">
+        <v>45203.48448108796</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D481" s="3">
+        <v>2.0233964E7</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I481" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J481" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K481" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L481" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M481" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2">
+        <v>45203.54831636574</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D482" s="3">
+        <v>2.020302E7</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H482" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I482" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L482" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M482" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2">
+        <v>45203.569232650465</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D483" s="3">
+        <v>2.0193646E7</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H483" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I483" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J483" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K483" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L483" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M483" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2">
+        <v>45203.595402569445</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D484" s="3">
+        <v>2.0183212E7</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I484" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L484" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N484" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2">
+        <v>45203.59857318287</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D485" s="3">
+        <v>2.0236767E7</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H485" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I485" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J485" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K485" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L485" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N485" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2">
+        <v>45203.61882145834</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D486" s="3">
+        <v>2.0232303E7</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I486" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J486" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K486" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L486" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N486" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2">
+        <v>45203.631658831015</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D487" s="3">
+        <v>2.0233728E7</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H487" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I487" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J487" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L487" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N487" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2">
+        <v>45203.63711599537</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D488" s="3">
+        <v>2.0231093E7</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I488" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J488" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L488" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N488" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2">
+        <v>45203.658554803245</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D489" s="3">
+        <v>2.0236606E7</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H489" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I489" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J489" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K489" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L489" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N489" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2">
+        <v>45203.70389784723</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2.0236741E7</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I490" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J490" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K490" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L490" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N490" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2">
+        <v>45203.72119506945</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D491" s="3">
+        <v>2.0213014E7</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I491" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J491" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K491" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L491" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M491" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2">
+        <v>45203.753574918985</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D492" s="3">
+        <v>2.022641E7</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I492" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J492" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K492" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L492" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M492" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2">
+        <v>45203.75817221065</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D493" s="3">
+        <v>2.0205246E7</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H493" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I493" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J493" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L493" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N493" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2">
+        <v>45203.78018078704</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D494" s="3">
+        <v>2.0223324E7</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I494" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J494" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K494" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M494" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2">
+        <v>45203.81398475694</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D495" s="3">
+        <v>2.0211526E7</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H495" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I495" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J495" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K495" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M495" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2">
+        <v>45203.86708804398</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2.0233303E7</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I496" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J496" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K496" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L496" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N496" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2">
+        <v>45203.867837233796</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D497" s="3">
+        <v>2.0232356E7</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H497" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I497" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J497" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K497" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L497" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M497" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2">
+        <v>45203.92044664352</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D498" s="3">
+        <v>2.0222987E7</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H498" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I498" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J498" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L498" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N498" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2">
+        <v>45203.94454146991</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D499" s="3">
+        <v>2.0172522E7</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H499" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I499" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J499" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K499" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L499" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M499" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2">
+        <v>45203.966899189814</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D500" s="3">
+        <v>2.0202331E7</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H500" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I500" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J500" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K500" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L500" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N500" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2">
+        <v>45203.98514748843</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D501" s="3">
+        <v>2.0231209E7</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H501" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I501" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J501" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K501" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L501" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N501" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2">
+        <v>45204.42248703704</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D502" s="3">
+        <v>2.0202851E7</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H502" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I502" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J502" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K502" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L502" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M502" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2">
+        <v>45204.448110428246</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D503" s="3">
+        <v>2.0235252E7</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H503" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I503" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J503" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K503" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L503" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M503" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2">
+        <v>45204.47492833334</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D504" s="3">
+        <v>2.0201634E7</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H504" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I504" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J504" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K504" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L504" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M504" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2">
+        <v>45204.51331155092</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D505" s="3">
+        <v>2.0236785E7</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H505" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I505" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J505" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K505" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L505" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N505" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2">
+        <v>45204.51402275463</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D506" s="3">
+        <v>2.0236768E7</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H506" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I506" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J506" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K506" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L506" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N506" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2">
+        <v>45204.515659895835</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D507" s="3">
+        <v>2.0203257E7</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H507" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I507" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J507" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K507" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L507" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M507" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2">
+        <v>45204.52888704861</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D508" s="3">
+        <v>2.0235133E7</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H508" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I508" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J508" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K508" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L508" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N508" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2">
+        <v>45204.58531238426</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D509" s="3">
+        <v>2.0233911E7</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H509" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I509" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J509" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K509" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L509" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N509" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2">
+        <v>45204.58821903935</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D510" s="3">
+        <v>2.0217071E7</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H510" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I510" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J510" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K510" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L510" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N510" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2">
+        <v>45204.61251466435</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D511" s="3">
+        <v>2.0236623E7</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G511" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H511" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I511" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J511" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K511" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L511" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M511" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2">
+        <v>45204.62719824074</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D512" s="3">
+        <v>2.0233245E7</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H512" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I512" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J512" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K512" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L512" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M512" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2">
+        <v>45204.62940943287</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D513" s="3">
+        <v>2.0203515E7</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H513" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I513" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J513" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K513" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L513" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N513" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2">
+        <v>45204.66213650463</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D514" s="3">
+        <v>2.0226613E7</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H514" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I514" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J514" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K514" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L514" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N514" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2">
+        <v>45204.68935903935</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D515" s="3">
+        <v>2.0231626E7</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H515" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I515" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J515" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K515" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L515" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N515" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2">
+        <v>45204.72171951389</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D516" s="3">
+        <v>2.0212233E7</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H516" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I516" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J516" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K516" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L516" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M516" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2">
+        <v>45204.74310553241</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D517" s="3">
+        <v>2.0233344E7</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H517" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I517" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J517" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K517" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L517" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N517" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2">
+        <v>45204.78517945602</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D518" s="3">
+        <v>2.0232354E7</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H518" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I518" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J518" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K518" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L518" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N518" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2">
+        <v>45204.82675689815</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D519" s="3">
+        <v>2.0232617E7</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H519" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I519" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J519" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K519" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L519" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M519" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2">
+        <v>45204.89156333334</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D520" s="3">
+        <v>2.0222561E7</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H520" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I520" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J520" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K520" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L520" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M520" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2">
+        <v>45204.91611909722</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D521" s="3">
+        <v>2.0232114E7</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H521" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I521" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J521" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K521" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L521" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M521" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2">
+        <v>45204.93331974537</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D522" s="3">
+        <v>2.022173E7</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I522" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J522" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K522" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L522" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N522" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2">
+        <v>45204.99068407407</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D523" s="3">
+        <v>2.023676E7</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H523" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I523" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J523" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K523" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L523" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M523" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2">
+        <v>45205.0645478125</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D524" s="3">
+        <v>2.0232328E7</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H524" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I524" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J524" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K524" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L524" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N524" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2">
+        <v>45205.09135890046</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D525" s="3">
+        <v>2.0233244E7</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I525" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J525" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K525" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L525" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N525" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2">
+        <v>45205.1415587963</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D526" s="3">
+        <v>2.0236628E7</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H526" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I526" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J526" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K526" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L526" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M526" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2">
+        <v>45205.15108369213</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D527" s="3">
+        <v>2.0233256E7</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H527" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I527" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J527" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K527" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L527" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N527" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2">
+        <v>45205.38450756944</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D528" s="3">
+        <v>2.0191536E7</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H528" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I528" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J528" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K528" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L528" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N528" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2">
+        <v>45205.47895576389</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D529" s="3">
+        <v>2.023361E7</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I529" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J529" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K529" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L529" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N529" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2">
+        <v>45205.53777313657</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D530" s="3">
+        <v>2.023519E7</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I530" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J530" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K530" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L530" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M530" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2">
+        <v>45205.556012395835</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D531" s="3">
+        <v>2.0236231E7</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I531" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J531" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K531" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L531" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M531" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2">
+        <v>45205.594088819445</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D532" s="3">
+        <v>2.0182517E7</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I532" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J532" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K532" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L532" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M532" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2">
+        <v>45205.598066736115</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D533" s="3">
+        <v>2.0233634E7</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I533" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J533" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K533" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L533" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N533" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2">
+        <v>45205.60372699074</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D534" s="3">
+        <v>2.0232629E7</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I534" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J534" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K534" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L534" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N534" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2">
+        <v>45205.61027847222</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D535" s="3">
+        <v>2.023621E7</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I535" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J535" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K535" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L535" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M535" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2">
+        <v>45205.62753059028</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D536" s="3">
+        <v>2.0226622E7</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I536" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J536" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K536" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L536" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M536" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2">
+        <v>45205.63321373843</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D537" s="3">
+        <v>2.0222429E7</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I537" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J537" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K537" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L537" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M537" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2">
+        <v>45205.648882118054</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D538" s="3">
+        <v>2.0232946E7</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H538" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I538" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J538" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K538" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L538" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M538" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2">
+        <v>45205.6722096875</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D539" s="3">
+        <v>2.0236608E7</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I539" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J539" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K539" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L539" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M539" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2">
+        <v>45205.67825067129</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D540" s="3">
+        <v>2.0234147E7</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I540" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J540" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K540" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L540" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N540" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2">
+        <v>45205.700902094904</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D541" s="3">
+        <v>2.0192902E7</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I541" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J541" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K541" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L541" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M541" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2">
+        <v>45205.73068729167</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D542" s="3">
+        <v>2.0202622E7</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H542" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I542" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J542" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K542" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L542" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M542" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2">
+        <v>45205.74014230324</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D543" s="3">
+        <v>2.0235276E7</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H543" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I543" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J543" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K543" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L543" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M543" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2">
+        <v>45205.82574172453</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D544" s="3">
+        <v>2.0235155E7</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I544" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J544" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K544" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L544" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N544" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2">
+        <v>45205.827677361114</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D545" s="3">
+        <v>2.0232612E7</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I545" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J545" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K545" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L545" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N545" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2">
+        <v>45205.84651065972</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D546" s="3">
+        <v>2.0202223E7</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I546" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J546" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K546" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L546" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N546" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2">
+        <v>45205.855299386574</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D547" s="3">
+        <v>2.0226256E7</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H547" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I547" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J547" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K547" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L547" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M547" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2">
+        <v>45205.87670449074</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D548" s="3">
+        <v>2.0234136E7</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I548" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J548" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K548" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L548" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N548" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2">
+        <v>45205.9199269213</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D549" s="3">
+        <v>2.0205239E7</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I549" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J549" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K549" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L549" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N549" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2">
+        <v>45205.92645118055</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D550" s="3">
+        <v>2.0232509E7</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I550" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J550" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K550" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L550" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M550" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2">
+        <v>45205.94175537037</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D551" s="3">
+        <v>2.0222213E7</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I551" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J551" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K551" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L551" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N551" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2">
+        <v>45205.99252289352</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D552" s="3">
+        <v>2.0233052E7</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I552" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J552" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K552" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L552" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N552" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2">
+        <v>45206.001704131944</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D553" s="3">
+        <v>2.0215249E7</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I553" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J553" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K553" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L553" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M553" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2">
+        <v>45206.00766883102</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D554" s="3">
+        <v>2.0225207E7</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I554" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J554" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K554" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L554" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M554" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2">
+        <v>45206.01034331019</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D555" s="3">
+        <v>2.0193934E7</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I555" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J555" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K555" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L555" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M555" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2">
+        <v>45206.03465760416</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D556" s="3">
+        <v>2.0232537E7</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I556" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J556" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K556" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L556" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M556" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2">
+        <v>45206.05796706019</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D557" s="3">
+        <v>2.0192136E7</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I557" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J557" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K557" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L557" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M557" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2">
+        <v>45206.06180048611</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D558" s="3">
+        <v>2.0231502E7</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I558" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J558" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K558" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L558" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N558" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2">
+        <v>45206.075594375</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D559" s="3">
+        <v>2.0236771E7</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I559" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J559" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K559" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L559" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M559" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2">
+        <v>45206.174049444446</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D560" s="3">
+        <v>2.020275E7</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H560" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I560" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J560" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K560" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L560" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M560" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2">
+        <v>45206.3547405787</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D561" s="3">
+        <v>2.0203224E7</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F561" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H561" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I561" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J561" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K561" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L561" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M561" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2">
+        <v>45206.50694532407</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D562" s="3">
+        <v>2.0233903E7</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H562" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I562" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J562" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K562" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L562" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M562" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2">
+        <v>45206.519537037035</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D563" s="3">
+        <v>2.0223259E7</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H563" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I563" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J563" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K563" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L563" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M563" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2">
+        <v>45206.5411330787</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D564" s="3">
+        <v>2.0183845E7</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H564" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I564" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J564" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K564" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L564" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M564" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2">
+        <v>45206.55892273148</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D565" s="3">
+        <v>2.0232342E7</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H565" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I565" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J565" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K565" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L565" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M565" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2">
+        <v>45206.57320678241</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D566" s="3">
+        <v>2.021221E7</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H566" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I566" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J566" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K566" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L566" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M566" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2">
+        <v>45206.582598865745</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D567" s="3">
+        <v>2.0222804E7</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H567" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I567" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J567" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K567" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L567" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M567" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2">
+        <v>45206.59523528935</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D568" s="3">
+        <v>2.0232545E7</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H568" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I568" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J568" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K568" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L568" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M568" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2">
+        <v>45206.59656148148</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D569" s="3">
+        <v>2.0233819E7</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H569" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I569" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J569" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K569" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L569" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M569" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="1310">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3788,6 +3788,159 @@
   </si>
   <si>
     <t>성동휘</t>
+  </si>
+  <si>
+    <t>20233817@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>pks5176275@naver.com</t>
+  </si>
+  <si>
+    <t>박광성</t>
+  </si>
+  <si>
+    <t>young960403@gmail.com</t>
+  </si>
+  <si>
+    <t>장영준</t>
+  </si>
+  <si>
+    <t>pyjun0607@gmail.com</t>
+  </si>
+  <si>
+    <t>박연준</t>
+  </si>
+  <si>
+    <t>ryuthgud@naver.com</t>
+  </si>
+  <si>
+    <t>류소형</t>
+  </si>
+  <si>
+    <t>chm040305@naver.com</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언어청각학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">조민서 </t>
+  </si>
+  <si>
+    <t>gaddong0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김민균</t>
+  </si>
+  <si>
+    <t>psm4155@gmail.com</t>
+  </si>
+  <si>
+    <t>박진주</t>
+  </si>
+  <si>
+    <t>bsb012345@naver.com</t>
+  </si>
+  <si>
+    <t>박준혁</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>jamesjm0612@gmail.com</t>
+  </si>
+  <si>
+    <t>정재민</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>cupholderr100@gmail.com</t>
+  </si>
+  <si>
+    <t>홍민지</t>
+  </si>
+  <si>
+    <t>skysun0510@naver.com</t>
+  </si>
+  <si>
+    <t>유중선</t>
+  </si>
+  <si>
+    <t>gwkang0330@gmail.com</t>
+  </si>
+  <si>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>ind_b3@naver.com</t>
+  </si>
+  <si>
+    <t>김지안</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>umseoy2@gmail.com</t>
+  </si>
+  <si>
+    <t>엄서영</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>정현석</t>
+  </si>
+  <si>
+    <t>h20203411@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>반초원</t>
+  </si>
+  <si>
+    <t>namyh995@gmail.com</t>
+  </si>
+  <si>
+    <t>남윤혁</t>
   </si>
 </sst>
 </file>
@@ -27392,6 +27545,1031 @@
         <v>109</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2">
+        <v>45206.63613087963</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D570" s="3">
+        <v>2.0233817E7</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H570" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I570" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J570" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K570" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L570" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M570" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2">
+        <v>45206.63852807871</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D571" s="3">
+        <v>2.0192319E7</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H571" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I571" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J571" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K571" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L571" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M571" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2">
+        <v>45206.66995199074</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D572" s="3">
+        <v>2.0233826E7</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H572" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I572" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J572" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K572" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L572" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M572" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2">
+        <v>45206.67131996527</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D573" s="3">
+        <v>2.0235161E7</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H573" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I573" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J573" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K573" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L573" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N573" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2">
+        <v>45206.67368603009</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D574" s="3">
+        <v>2.0232748E7</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H574" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I574" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J574" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K574" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L574" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M574" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2">
+        <v>45206.68059131944</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D575" s="3">
+        <v>2.0235168E7</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H575" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I575" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J575" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K575" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L575" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N575" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2">
+        <v>45206.69380608796</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D576" s="3">
+        <v>2.0232947E7</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H576" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I576" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J576" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K576" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L576" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N576" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2">
+        <v>45206.73077684028</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D577" s="3">
+        <v>2.0235273E7</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H577" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I577" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J577" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K577" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L577" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M577" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2">
+        <v>45206.74297665509</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D578" s="3">
+        <v>2.0233959E7</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H578" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I578" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J578" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K578" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L578" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M578" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2">
+        <v>45206.76222076389</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D579" s="3">
+        <v>2.0232106E7</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H579" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I579" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J579" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K579" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L579" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M579" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2">
+        <v>45206.77820753472</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D580" s="3">
+        <v>2.0231518E7</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H580" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I580" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J580" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K580" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L580" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M580" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2">
+        <v>45206.79041190972</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D581" s="3">
+        <v>2.0183515E7</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H581" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I581" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J581" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K581" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L581" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M581" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2">
+        <v>45206.81430075232</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D582" s="3">
+        <v>2.0201083E7</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H582" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I582" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J582" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K582" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L582" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M582" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2">
+        <v>45206.81704366898</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D583" s="3">
+        <v>2.0231231E7</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H583" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I583" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J583" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K583" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L583" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N583" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2">
+        <v>45206.8265596875</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D584" s="3">
+        <v>2.0233353E7</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H584" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I584" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J584" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K584" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L584" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M584" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2">
+        <v>45206.83915738426</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D585" s="3">
+        <v>2.0232592E7</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F585" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G585" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H585" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I585" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J585" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K585" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L585" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N585" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2">
+        <v>45206.84552721065</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D586" s="3">
+        <v>2.0236268E7</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H586" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I586" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J586" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K586" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L586" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M586" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2">
+        <v>45206.898214305555</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D587" s="3">
+        <v>2.0235101E7</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H587" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I587" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J587" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K587" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L587" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N587" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2">
+        <v>45206.92244643519</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D588" s="3">
+        <v>2.0232523E7</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H588" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I588" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J588" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K588" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L588" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N588" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2">
+        <v>45206.94533120371</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D589" s="3">
+        <v>2.0222838E7</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H589" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I589" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J589" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K589" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M589" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2">
+        <v>45206.95658034722</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D590" s="3">
+        <v>2.0233939E7</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H590" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I590" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J590" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K590" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L590" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N590" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2">
+        <v>45206.959954907405</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D591" s="3">
+        <v>2.0232412E7</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H591" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I591" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J591" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K591" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L591" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N591" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2">
+        <v>45206.96215605324</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D592" s="3">
+        <v>2.0193344E7</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H592" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I592" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J592" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K592" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L592" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N592" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2">
+        <v>45206.96331993055</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D593" s="3">
+        <v>2.0203411E7</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H593" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I593" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J593" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K593" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L593" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N593" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2">
+        <v>45206.96855082176</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D594" s="3">
+        <v>2.0233217E7</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H594" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I594" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J594" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K594" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M594" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6382" uniqueCount="1397">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3941,6 +3941,267 @@
   </si>
   <si>
     <t>남윤혁</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>bldrlsld@gmail.com</t>
+  </si>
+  <si>
+    <t>김규빈</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>jjyyjj5463@gmail.com</t>
+  </si>
+  <si>
+    <t>정예진</t>
+  </si>
+  <si>
+    <t>leah082011@gmail.com</t>
+  </si>
+  <si>
+    <t>심채린</t>
+  </si>
+  <si>
+    <t>jeongyeon256@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>smile001118@gmail.com</t>
+  </si>
+  <si>
+    <t>홍성준</t>
+  </si>
+  <si>
+    <t>hakyung060411@naver.com</t>
+  </si>
+  <si>
+    <t>박하경</t>
+  </si>
+  <si>
+    <t>richhjin@naver.com</t>
+  </si>
+  <si>
+    <t>donguk3121@gmail.com</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>changyw6729@naver.com</t>
+  </si>
+  <si>
+    <t>장연욱</t>
+  </si>
+  <si>
+    <t>chi9605@naver.com</t>
+  </si>
+  <si>
+    <t>이채연</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>lsyun5050@naver.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>plzmxn@naver.com</t>
+  </si>
+  <si>
+    <t>현상희</t>
+  </si>
+  <si>
+    <t>seizekim@naver.com</t>
+  </si>
+  <si>
+    <t>김종학</t>
+  </si>
+  <si>
+    <t>kwb905@naver.com</t>
+  </si>
+  <si>
+    <t>김우빈</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>간호학고ㅓ</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>hshs0104746@naver.com</t>
+  </si>
+  <si>
+    <t>최희수</t>
+  </si>
+  <si>
+    <t>chagaeun0906@gmail.com</t>
+  </si>
+  <si>
+    <t>최가은</t>
+  </si>
+  <si>
+    <t>khw6583@gmail.com</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>ohr3876@gmail.com</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>guseons__@naver.com</t>
+  </si>
+  <si>
+    <t>구선화</t>
+  </si>
+  <si>
+    <t>kimjy040302@gmail.com</t>
+  </si>
+  <si>
+    <t>김지연</t>
+  </si>
+  <si>
+    <t>mosumin345@gmail.com</t>
+  </si>
+  <si>
+    <t>모수민</t>
+  </si>
+  <si>
+    <t>jhkang050107@gmail.com</t>
+  </si>
+  <si>
+    <t>강지희</t>
+  </si>
+  <si>
+    <t>rdc9118@naver.com</t>
+  </si>
+  <si>
+    <t>김예찬</t>
+  </si>
+  <si>
+    <t>cho2scho2s@gmail.com</t>
+  </si>
+  <si>
+    <t>조은해</t>
+  </si>
+  <si>
+    <t>noble2755@naver.com</t>
+  </si>
+  <si>
+    <t>김정기</t>
+  </si>
+  <si>
+    <t>gahyun030405@gmail.com</t>
+  </si>
+  <si>
+    <t>윤가현</t>
+  </si>
+  <si>
+    <t>whddlf0504@icloud.com</t>
+  </si>
+  <si>
+    <t>김종일</t>
+  </si>
+  <si>
+    <t>a01093819049@gmail.com</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>zzolle424@naver.com</t>
+  </si>
+  <si>
+    <t>전지호</t>
+  </si>
+  <si>
+    <t>jimin4729@naver.com</t>
+  </si>
+  <si>
+    <t>chant1238762@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>jehuncho03@gmail.com</t>
+  </si>
+  <si>
+    <t>조제헌</t>
+  </si>
+  <si>
+    <t>bbko323@naver.com</t>
+  </si>
+  <si>
+    <t>방수연</t>
+  </si>
+  <si>
+    <t>dlwlgy0001@naver.com</t>
+  </si>
+  <si>
+    <t>이지효</t>
+  </si>
+  <si>
+    <t>leejisu0909@naver.com</t>
   </si>
 </sst>
 </file>
@@ -28570,6 +28831,1810 @@
         <v>30</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="2">
+        <v>45206.97500201389</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D595" s="3">
+        <v>2.0235105E7</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H595" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I595" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J595" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K595" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L595" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M595" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2">
+        <v>45206.989636053244</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D596" s="3">
+        <v>2.0221603E7</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H596" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I596" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J596" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K596" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L596" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N596" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2">
+        <v>45206.997781377315</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D597" s="3">
+        <v>2.0233644E7</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H597" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I597" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J597" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K597" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L597" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N597" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2">
+        <v>45207.00593175926</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D598" s="3">
+        <v>2.0212601E7</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H598" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I598" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J598" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K598" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M598" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2">
+        <v>45207.007712094906</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D599" s="3">
+        <v>2.0232586E7</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H599" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I599" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J599" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K599" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L599" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M599" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2">
+        <v>45207.00841738426</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D600" s="3">
+        <v>2.0233034E7</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H600" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I600" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J600" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K600" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L600" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M600" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2">
+        <v>45207.01025576389</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D601" s="3">
+        <v>2.0232981E7</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H601" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I601" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J601" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K601" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L601" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M601" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2">
+        <v>45207.01391206018</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D602" s="3">
+        <v>2.0232232E7</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H602" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I602" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J602" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K602" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M602" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2">
+        <v>45207.02687903935</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D603" s="3">
+        <v>2.022224E7</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H603" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I603" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J603" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K603" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M603" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2">
+        <v>45207.02787917824</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D604" s="3">
+        <v>2.0233929E7</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H604" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I604" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J604" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K604" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L604" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M604" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2">
+        <v>45207.04419530093</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D605" s="3">
+        <v>2.0233732E7</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H605" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I605" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J605" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K605" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L605" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N605" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2">
+        <v>45207.090989687495</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D606" s="3">
+        <v>2.0226129E7</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I606" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J606" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K606" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L606" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M606" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2">
+        <v>45207.09246248842</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D607" s="3">
+        <v>2.0232573E7</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I607" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J607" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K607" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L607" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M607" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2">
+        <v>45207.09474079861</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D608" s="3">
+        <v>2.0202633E7</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I608" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J608" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K608" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L608" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N608" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2">
+        <v>45207.10525547454</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D609" s="3">
+        <v>2.0233934E7</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I609" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J609" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K609" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L609" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N609" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2">
+        <v>45207.12792125</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2.0232561E7</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I610" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J610" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K610" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L610" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N610" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2">
+        <v>45207.138636874995</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D611" s="3">
+        <v>2.0232642E7</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H611" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I611" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J611" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K611" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L611" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N611" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2">
+        <v>45207.14105291667</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D612" s="3">
+        <v>2.0203406E7</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H612" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I612" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J612" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K612" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M612" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2">
+        <v>45207.1583162037</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D613" s="3">
+        <v>2.0232607E7</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I613" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J613" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K613" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M613" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2">
+        <v>45207.19804224537</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D614" s="3">
+        <v>2.0192241E7</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H614" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I614" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J614" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K614" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L614" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N614" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2">
+        <v>45207.35631658565</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D615" s="3">
+        <v>2.0236269E7</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F615" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I615" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J615" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L615" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N615" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2">
+        <v>45207.3658753125</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D616" s="3">
+        <v>2.0226429E7</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F616" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H616" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I616" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J616" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K616" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L616" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N616" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2">
+        <v>45207.37622655093</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D617" s="3">
+        <v>2.0232639E7</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H617" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I617" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J617" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K617" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M617" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2">
+        <v>45207.37771731481</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D618" s="3">
+        <v>2.0233736E7</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H618" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I618" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J618" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K618" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L618" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M618" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2">
+        <v>45207.386804016205</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D619" s="3">
+        <v>2.0235154E7</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H619" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I619" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J619" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K619" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M619" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2">
+        <v>45207.39764497685</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D620" s="3">
+        <v>2.0221026E7</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F620" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H620" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I620" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J620" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K620" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L620" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N620" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2">
+        <v>45207.405885</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D621" s="3">
+        <v>2.0233035E7</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F621" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H621" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I621" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J621" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K621" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L621" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M621" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2">
+        <v>45207.4088805787</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D622" s="3">
+        <v>2.0203301E7</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H622" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I622" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J622" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K622" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L622" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N622" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2">
+        <v>45207.41968103009</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D623" s="3">
+        <v>2.0232319E7</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F623" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H623" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I623" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J623" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K623" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L623" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M623" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2">
+        <v>45207.42740571759</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D624" s="3">
+        <v>2.0226235E7</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H624" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I624" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J624" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K624" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L624" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M624" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2">
+        <v>45207.479219456014</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D625" s="3">
+        <v>2.0236203E7</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H625" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I625" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J625" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K625" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L625" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N625" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2">
+        <v>45207.4793096412</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D626" s="3">
+        <v>2.0173608E7</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F626" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H626" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I626" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J626" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K626" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L626" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M626" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2">
+        <v>45207.483405590276</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D627" s="3">
+        <v>2.0232364E7</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H627" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I627" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J627" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K627" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L627" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M627" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2">
+        <v>45207.489328703705</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D628" s="3">
+        <v>2.0233211E7</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H628" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I628" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J628" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K628" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L628" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N628" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2">
+        <v>45207.49909570602</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D629" s="3">
+        <v>2.0236419E7</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H629" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I629" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J629" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K629" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L629" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N629" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2">
+        <v>45207.50493086806</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D630" s="3">
+        <v>2.0185121E7</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H630" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I630" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J630" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K630" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L630" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M630" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2">
+        <v>45207.50608039352</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D631" s="3">
+        <v>2.0212608E7</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H631" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I631" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J631" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K631" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L631" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N631" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2">
+        <v>45207.51685112268</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D632" s="3">
+        <v>2.023303E7</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H632" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I632" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J632" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K632" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L632" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M632" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2">
+        <v>45207.525700729166</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D633" s="3">
+        <v>2.0232747E7</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H633" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I633" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J633" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K633" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L633" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M633" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2">
+        <v>45207.531146469904</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D634" s="3">
+        <v>2.0225186E7</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H634" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I634" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J634" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K634" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L634" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N634" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2">
+        <v>45207.53396288195</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D635" s="3">
+        <v>2.0226425E7</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H635" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I635" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J635" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K635" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L635" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M635" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2">
+        <v>45207.53438467592</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D636" s="3">
+        <v>2.0203412E7</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H636" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I636" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J636" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K636" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L636" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M636" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2">
+        <v>45207.534616944446</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D637" s="3">
+        <v>2.0203024E7</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H637" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I637" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J637" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K637" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L637" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N637" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2">
+        <v>45207.5397975463</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D638" s="3">
+        <v>2.020334E7</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F638" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H638" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I638" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J638" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K638" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L638" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M638" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz230925_tmp.xlsx
+++ b/R/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6382" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8492" uniqueCount="1813">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4202,6 +4202,1254 @@
   </si>
   <si>
     <t>leejisu0909@naver.com</t>
+  </si>
+  <si>
+    <t>bom031417@naver.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>mtb200363@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>pokari505@naver.com</t>
+  </si>
+  <si>
+    <t>임경섭</t>
+  </si>
+  <si>
+    <t>jio3222019@gmail.com</t>
+  </si>
+  <si>
+    <t>서상욱</t>
+  </si>
+  <si>
+    <t>jieunpark0408@naver.com</t>
+  </si>
+  <si>
+    <t>박지은</t>
+  </si>
+  <si>
+    <t>sulnak159@gamil.com</t>
+  </si>
+  <si>
+    <t>김남준</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>h20192607@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>yeonjoon9900@gmail.com</t>
+  </si>
+  <si>
+    <t>이연준</t>
+  </si>
+  <si>
+    <t>sillysunny@naver.com</t>
+  </si>
+  <si>
+    <t>박세현</t>
+  </si>
+  <si>
+    <t>dlstn3085@naver.com</t>
+  </si>
+  <si>
+    <t>한인수</t>
+  </si>
+  <si>
+    <t>godis2002@naver.com</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>k28119813@gmail.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>thals0308@naver.com</t>
+  </si>
+  <si>
+    <t>오소민</t>
+  </si>
+  <si>
+    <t>djcjfakstp@gmail.com</t>
+  </si>
+  <si>
+    <t>융합인재학부</t>
+  </si>
+  <si>
+    <t>어철</t>
+  </si>
+  <si>
+    <t>digiphk12@naver.com</t>
+  </si>
+  <si>
+    <t>박현규</t>
+  </si>
+  <si>
+    <t>dbwjd_1230@naver.com</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>rudtjraudwls@naver.com</t>
+  </si>
+  <si>
+    <t>한경석</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>leedongbin01@naver.com</t>
+  </si>
+  <si>
+    <t>이동빈</t>
+  </si>
+  <si>
+    <t>dlwldms926@naver.com</t>
+  </si>
+  <si>
+    <t>이지은</t>
+  </si>
+  <si>
+    <t>taeseo12@naver.com</t>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>박태서</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>jihye199530@gmail.com</t>
+  </si>
+  <si>
+    <t>엄지혜</t>
+  </si>
+  <si>
+    <t>snowy0601@nvaer.com</t>
+  </si>
+  <si>
+    <t>차연우</t>
+  </si>
+  <si>
+    <t>jinyoung05503@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>limjaewoo0611@naver.com</t>
+  </si>
+  <si>
+    <t>chs1886@naver.com</t>
+  </si>
+  <si>
+    <t>최현승</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>jkw1391@maver.com</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>kbk0880@naver.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>강병철</t>
+  </si>
+  <si>
+    <t>coolsw98@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부 정보법과학전공</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>dkdud4750@naver.com</t>
+  </si>
+  <si>
+    <t>양아영</t>
+  </si>
+  <si>
+    <t>rhdid98@naver.com</t>
+  </si>
+  <si>
+    <t>김소정</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>vjk92243@naver.com</t>
+  </si>
+  <si>
+    <t>백준열</t>
+  </si>
+  <si>
+    <t>dbwjdrms21@naver.com</t>
+  </si>
+  <si>
+    <t>유정근</t>
+  </si>
+  <si>
+    <t>jayean0715@naver.com</t>
+  </si>
+  <si>
+    <t>김자연</t>
+  </si>
+  <si>
+    <t>ksw1012951@naver.com</t>
+  </si>
+  <si>
+    <t>김시우</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>dbswotjq12@naver.com</t>
+  </si>
+  <si>
+    <t>윤재섭</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>tnqls06082@naver.com</t>
+  </si>
+  <si>
+    <t>조수빈</t>
+  </si>
+  <si>
+    <t>dorud030406@naver.com</t>
+  </si>
+  <si>
+    <t>이예경</t>
+  </si>
+  <si>
+    <t>jinhyuncinxxs@gmail.com</t>
+  </si>
+  <si>
+    <t>손진현</t>
+  </si>
+  <si>
+    <t>luv7253@naver.com</t>
+  </si>
+  <si>
+    <t>임아리</t>
+  </si>
+  <si>
+    <t>6893rlawns@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스학과</t>
+  </si>
+  <si>
+    <t>김준</t>
+  </si>
+  <si>
+    <t>1207dpwls@naver.com</t>
+  </si>
+  <si>
+    <t>주예진</t>
+  </si>
+  <si>
+    <t>rorita1191@naver.com</t>
+  </si>
+  <si>
+    <t>김연슬</t>
+  </si>
+  <si>
+    <t>soccert1999@gmail.com</t>
+  </si>
+  <si>
+    <t>육정민</t>
+  </si>
+  <si>
+    <t>shinys000114@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합대학 스마트IoT</t>
+  </si>
+  <si>
+    <t>신영수</t>
+  </si>
+  <si>
+    <t>ghys1837@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학 전공</t>
+  </si>
+  <si>
+    <t>안영서</t>
+  </si>
+  <si>
+    <t>taeho4756@naver.com</t>
+  </si>
+  <si>
+    <t>조태호</t>
+  </si>
+  <si>
+    <t>orenbut22@gmail.com</t>
+  </si>
+  <si>
+    <t>윤재은</t>
+  </si>
+  <si>
+    <t>sio0406@naver.com</t>
+  </si>
+  <si>
+    <t>이소이</t>
+  </si>
+  <si>
+    <t>qwertyuiop8437@gmail.com</t>
+  </si>
+  <si>
+    <t>정수환</t>
+  </si>
+  <si>
+    <t>h20205164@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박건웅</t>
+  </si>
+  <si>
+    <t>tjgussla77@naver.com</t>
+  </si>
+  <si>
+    <t>차서현</t>
+  </si>
+  <si>
+    <t>jonahkim4415@gmail.com</t>
+  </si>
+  <si>
+    <t>김요나</t>
+  </si>
+  <si>
+    <t>jsbaek16@gmail.com</t>
+  </si>
+  <si>
+    <t>김하선</t>
+  </si>
+  <si>
+    <t>j1204yh@naver.com</t>
+  </si>
+  <si>
+    <t>정영호</t>
+  </si>
+  <si>
+    <t>wjstngusa@gmail.com</t>
+  </si>
+  <si>
+    <t>전수현</t>
+  </si>
+  <si>
+    <t>mjh8429@naver.com</t>
+  </si>
+  <si>
+    <t>민지혜</t>
+  </si>
+  <si>
+    <t>codmsrjf@naver.com</t>
+  </si>
+  <si>
+    <t>정채은</t>
+  </si>
+  <si>
+    <t>wlals0817@naver.com</t>
+  </si>
+  <si>
+    <t>정지민</t>
+  </si>
+  <si>
+    <t>jwk9677@gmail.com</t>
+  </si>
+  <si>
+    <t>강지우</t>
+  </si>
+  <si>
+    <t>dungunfight9@gmail.com</t>
+  </si>
+  <si>
+    <t>유홍현</t>
+  </si>
+  <si>
+    <t>parkwj2004@gmail.com</t>
+  </si>
+  <si>
+    <t>박원준</t>
+  </si>
+  <si>
+    <t>duddms5818@naver.com</t>
+  </si>
+  <si>
+    <t>한영은</t>
+  </si>
+  <si>
+    <t>gahee021911@gmail.com</t>
+  </si>
+  <si>
+    <t>임가희</t>
+  </si>
+  <si>
+    <t>jangho5636@gmail.com</t>
+  </si>
+  <si>
+    <t>이장호</t>
+  </si>
+  <si>
+    <t>mnsghn314@naver.com</t>
+  </si>
+  <si>
+    <t>문승현</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>chdcks7359@gmail.com</t>
+  </si>
+  <si>
+    <t>장총찬</t>
+  </si>
+  <si>
+    <t>yoodj4424@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>유동재</t>
+  </si>
+  <si>
+    <t>leegijae040209@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤</t>
+  </si>
+  <si>
+    <t>qwerty052799@gmail.com</t>
+  </si>
+  <si>
+    <t>박성현</t>
+  </si>
+  <si>
+    <t>naturally160@naver.com</t>
+  </si>
+  <si>
+    <t>홍지원</t>
+  </si>
+  <si>
+    <t>imground_cat@naver.com</t>
+  </si>
+  <si>
+    <t>유여름</t>
+  </si>
+  <si>
+    <t>knrgirl1223@gmail.com</t>
+  </si>
+  <si>
+    <t>김나래</t>
+  </si>
+  <si>
+    <t>sykim09050905@gmail.com</t>
+  </si>
+  <si>
+    <t>김승연</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>y23220124@gmail.com</t>
+  </si>
+  <si>
+    <t>psb5150@naver.com</t>
+  </si>
+  <si>
+    <t>박수빈</t>
+  </si>
+  <si>
+    <t>wasabi0724@naver.com</t>
+  </si>
+  <si>
+    <t>홍지윤</t>
+  </si>
+  <si>
+    <t>lgb4750@naver.com</t>
+  </si>
+  <si>
+    <t>반도체-디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>lju5422@naver.com</t>
+  </si>
+  <si>
+    <t>임준섭</t>
+  </si>
+  <si>
+    <t>limyoon0725@daum.net</t>
+  </si>
+  <si>
+    <t>임윤서</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>wjdcofla24@naver.com</t>
+  </si>
+  <si>
+    <t>정채림</t>
+  </si>
+  <si>
+    <t>kmj02181004@gmail.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>qwop7845@naver.com</t>
+  </si>
+  <si>
+    <t>최시연</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>25ykrr0422@gmail.com</t>
+  </si>
+  <si>
+    <t>이정민</t>
+  </si>
+  <si>
+    <t>onlywon1207@gmail.com</t>
+  </si>
+  <si>
+    <t>백경원</t>
+  </si>
+  <si>
+    <t>jgw1274@naver.com</t>
+  </si>
+  <si>
+    <t>정근원</t>
+  </si>
+  <si>
+    <t>bbbbqqqq1@naver.com</t>
+  </si>
+  <si>
+    <t>장은서</t>
+  </si>
+  <si>
+    <t>rbdms0619@gmail.com</t>
+  </si>
+  <si>
+    <t>김규은</t>
+  </si>
+  <si>
+    <t>yurikim434@gmail.com</t>
+  </si>
+  <si>
+    <t>김유리</t>
+  </si>
+  <si>
+    <t>yumsan1305@gmail.com</t>
+  </si>
+  <si>
+    <t>최재경</t>
+  </si>
+  <si>
+    <t>seoseo2276@naver.com</t>
+  </si>
+  <si>
+    <t>qwer030815@naver.com</t>
+  </si>
+  <si>
+    <t>정은진</t>
+  </si>
+  <si>
+    <t>minjunkim0205@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>소프트웨어 융합</t>
+  </si>
+  <si>
+    <t>김민준</t>
+  </si>
+  <si>
+    <t>ahn12025759@gmail.com</t>
+  </si>
+  <si>
+    <t>안채현</t>
+  </si>
+  <si>
+    <t>sojeong12177@gmail.com</t>
+  </si>
+  <si>
+    <t>소정</t>
+  </si>
+  <si>
+    <t>td040802@naver.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>seohonglimmm@gmail.com</t>
+  </si>
+  <si>
+    <t>임서홍</t>
+  </si>
+  <si>
+    <t>psh6992@naver.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>halu365@naver.com</t>
+  </si>
+  <si>
+    <t>전교담</t>
+  </si>
+  <si>
+    <t>wjdalsdl9391@naver.com</t>
+  </si>
+  <si>
+    <t>엄정민</t>
+  </si>
+  <si>
+    <t>hyunjong9951@gmail.com</t>
+  </si>
+  <si>
+    <t>디스플레이학과</t>
+  </si>
+  <si>
+    <t>20192225@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이민아</t>
+  </si>
+  <si>
+    <t>ahnstar726@gmail.com</t>
+  </si>
+  <si>
+    <t>안태준</t>
+  </si>
+  <si>
+    <t>seominjun543@gmail.com</t>
+  </si>
+  <si>
+    <t>서민준</t>
+  </si>
+  <si>
+    <t>gata0523@gmail.com</t>
+  </si>
+  <si>
+    <t>서형록</t>
+  </si>
+  <si>
+    <t>hanam010819@gmail.com</t>
+  </si>
+  <si>
+    <t>rlawlsvy234@gmail.com</t>
+  </si>
+  <si>
+    <t>김진표</t>
+  </si>
+  <si>
+    <t>wnruddms@naver.com</t>
+  </si>
+  <si>
+    <t>주경은</t>
+  </si>
+  <si>
+    <t>yena8546@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>041030top@naver.com</t>
+  </si>
+  <si>
+    <t>최영국</t>
+  </si>
+  <si>
+    <t>kyjnkyj@naver.com</t>
+  </si>
+  <si>
+    <t>김윤지</t>
+  </si>
+  <si>
+    <t>gjska030@gmail.com</t>
+  </si>
+  <si>
+    <t>허남훈</t>
+  </si>
+  <si>
+    <t>00kimdayeon@naver.com</t>
+  </si>
+  <si>
+    <t>김다연</t>
+  </si>
+  <si>
+    <t>jshong01@gmail.com</t>
+  </si>
+  <si>
+    <t>홍준성</t>
+  </si>
+  <si>
+    <t>at79711@naver.com</t>
+  </si>
+  <si>
+    <t>박재영</t>
+  </si>
+  <si>
+    <t>goldmoon1217@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 - 콘텐츠IT전공(학과)</t>
+  </si>
+  <si>
+    <t>정진영</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t>박심미</t>
+  </si>
+  <si>
+    <t>nayoung0489@naver.com</t>
+  </si>
+  <si>
+    <t>miso993722@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어 학부</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>kimyebin0628@naver.com</t>
+  </si>
+  <si>
+    <t>김예빈</t>
+  </si>
+  <si>
+    <t>kt6714@naver.com</t>
+  </si>
+  <si>
+    <t>강경태</t>
+  </si>
+  <si>
+    <t>qkrguswns318@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빅데이터  </t>
+  </si>
+  <si>
+    <t>박현준</t>
+  </si>
+  <si>
+    <t>sjb0008@naver.com</t>
+  </si>
+  <si>
+    <t>심지범</t>
+  </si>
+  <si>
+    <t>jsy5233406@naver.com</t>
+  </si>
+  <si>
+    <t>정서연</t>
+  </si>
+  <si>
+    <t>unsc2438@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬환</t>
+  </si>
+  <si>
+    <t>alzm09123@gmail.com</t>
+  </si>
+  <si>
+    <t>정지영</t>
+  </si>
+  <si>
+    <t>rhdwl3656@nave.com</t>
+  </si>
+  <si>
+    <t>함예빈</t>
+  </si>
+  <si>
+    <t>a90937517@gmail.com</t>
+  </si>
+  <si>
+    <t>김현영</t>
+  </si>
+  <si>
+    <t>khm1785@naver.com</t>
+  </si>
+  <si>
+    <t>김효민</t>
+  </si>
+  <si>
+    <t>pearlzero@naver.com</t>
+  </si>
+  <si>
+    <t>진주영</t>
+  </si>
+  <si>
+    <t>psmin0217@naver.com</t>
+  </si>
+  <si>
+    <t>박성민</t>
+  </si>
+  <si>
+    <t>soc11116@naver.com</t>
+  </si>
+  <si>
+    <t>김재현</t>
+  </si>
+  <si>
+    <t>limsoowan7513@gmail.com</t>
+  </si>
+  <si>
+    <t>임수완</t>
+  </si>
+  <si>
+    <t>ktm4145@gmail.com</t>
+  </si>
+  <si>
+    <t>angelnhs@naver.com</t>
+  </si>
+  <si>
+    <t>남현수</t>
+  </si>
+  <si>
+    <t>hamy7@naver.com</t>
+  </si>
+  <si>
+    <t>이욱항</t>
+  </si>
+  <si>
+    <t>nhj010521@gmail.com</t>
+  </si>
+  <si>
+    <t>노형준</t>
+  </si>
+  <si>
+    <t>1221abba@naver.com</t>
+  </si>
+  <si>
+    <t>duaalstj9429@naver.com</t>
+  </si>
+  <si>
+    <t>염민서</t>
+  </si>
+  <si>
+    <t>abc810852@gmail.com</t>
+  </si>
+  <si>
+    <t>심지환</t>
+  </si>
+  <si>
+    <t>laurano.first@gmail.com</t>
+  </si>
+  <si>
+    <t>한서연</t>
+  </si>
+  <si>
+    <t>ehdus040127@gmail.com</t>
+  </si>
+  <si>
+    <t>wjdgus2251@naver.com</t>
+  </si>
+  <si>
+    <t>이정현</t>
+  </si>
+  <si>
+    <t>h01072223723@gmail.com</t>
+  </si>
+  <si>
+    <t>최정헌</t>
+  </si>
+  <si>
+    <t>hjkiubb@naver.com</t>
+  </si>
+  <si>
+    <t>박재은</t>
+  </si>
+  <si>
+    <t>com5556th@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>siddlzh6636@gmail.com</t>
+  </si>
+  <si>
+    <t>yenahpark0624@gmail.com</t>
+  </si>
+  <si>
+    <t>박예나</t>
+  </si>
+  <si>
+    <t>wkdqls9988@gmail.com</t>
+  </si>
+  <si>
+    <t>장현빈</t>
+  </si>
+  <si>
+    <t>20232593@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>youngprinceb612@gmail.com</t>
+  </si>
+  <si>
+    <t>송원혁</t>
+  </si>
+  <si>
+    <t>aj4497@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체•디스플레이 스쿨 </t>
+  </si>
+  <si>
+    <t>안연지</t>
+  </si>
+  <si>
+    <t>yglee135766@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤구</t>
+  </si>
+  <si>
+    <t>qkrqhdtn3@gmail.com</t>
+  </si>
+  <si>
+    <t>박봉수</t>
+  </si>
+  <si>
+    <t>sea36987412@gmail.com</t>
+  </si>
+  <si>
+    <t>유세아</t>
+  </si>
+  <si>
+    <t>guswhd1414@naver.com</t>
+  </si>
+  <si>
+    <t>tjdalsqkdrk@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 사이언스 학부</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>jaylee531@naver.com</t>
+  </si>
+  <si>
+    <t>이제이</t>
+  </si>
+  <si>
+    <t>wndltkr@naver.com</t>
+  </si>
+  <si>
+    <t>주이삭</t>
+  </si>
+  <si>
+    <t>sinsupal123@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>gmldnjs6885@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어학부 </t>
+  </si>
+  <si>
+    <t>손희원</t>
+  </si>
+  <si>
+    <t>jay003@naver.com</t>
+  </si>
+  <si>
+    <t>sjy020310@naver.com</t>
+  </si>
+  <si>
+    <t>송진용</t>
+  </si>
+  <si>
+    <t>kim061806@naver.com</t>
+  </si>
+  <si>
+    <t>김윤서</t>
+  </si>
+  <si>
+    <t>xyxuxn9256@gmail.com</t>
+  </si>
+  <si>
+    <t>인초윤</t>
+  </si>
+  <si>
+    <t>baeih15@naver.com</t>
+  </si>
+  <si>
+    <t>배임호</t>
+  </si>
+  <si>
+    <t>joon2622@naver.com</t>
+  </si>
+  <si>
+    <t>dlwogml2441@naver.com</t>
+  </si>
+  <si>
+    <t>이재희</t>
+  </si>
+  <si>
+    <t>parkjiune@naver.com</t>
+  </si>
+  <si>
+    <t>kimlee0411@naver.com</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>화학과 20233417</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>magicsung98@naver.com</t>
+  </si>
+  <si>
+    <t>김동훈</t>
+  </si>
+  <si>
+    <t>6405street@naver.com</t>
+  </si>
+  <si>
+    <t>pcb20043935@gmail.com</t>
+  </si>
+  <si>
+    <t>박찬빈</t>
+  </si>
+  <si>
+    <t>foxhslee@naver.com</t>
+  </si>
+  <si>
+    <t>이효성</t>
+  </si>
+  <si>
+    <t>sungyeon0803@gmail.com</t>
+  </si>
+  <si>
+    <t>최성연</t>
+  </si>
+  <si>
+    <t>bsw030409@gmail.com</t>
+  </si>
+  <si>
+    <t>백승우</t>
+  </si>
+  <si>
+    <t>jjmk010425@gmail.com</t>
+  </si>
+  <si>
+    <t>전재민</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>ybumma4@gmail.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>juliaqkrwpdm@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박제은</t>
+  </si>
+  <si>
+    <t>me_ruddlqslek@naver.com</t>
+  </si>
+  <si>
+    <t>홍나경</t>
+  </si>
+  <si>
+    <t>kmj10456@gmail.com</t>
+  </si>
+  <si>
+    <t>심리</t>
+  </si>
+  <si>
+    <t>cba05049@naver.com</t>
+  </si>
+  <si>
+    <t>박상우</t>
+  </si>
+  <si>
+    <t>obj2107@gmail.com</t>
+  </si>
+  <si>
+    <t>오병우</t>
+  </si>
+  <si>
+    <t>dlrmsdud0223@naver.com</t>
+  </si>
+  <si>
+    <t>이근영</t>
+  </si>
+  <si>
+    <t>hanseung241@gmail.com</t>
+  </si>
+  <si>
+    <t>040501</t>
+  </si>
+  <si>
+    <t>leejs16511@gmail.com</t>
+  </si>
+  <si>
+    <t>이정선</t>
+  </si>
+  <si>
+    <t>choijoonhyuk1412@naver.com</t>
+  </si>
+  <si>
+    <t>rlaalwhd3860@naver.com</t>
+  </si>
+  <si>
+    <t>김미종</t>
+  </si>
+  <si>
+    <t>kwonyb991111@naver.com</t>
+  </si>
+  <si>
+    <t>권용범</t>
+  </si>
+  <si>
+    <t>shonshon7@naver.com</t>
+  </si>
+  <si>
+    <t>임소연</t>
+  </si>
+  <si>
+    <t>jinny1804@naver.com</t>
+  </si>
+  <si>
+    <t>박윤진</t>
+  </si>
+  <si>
+    <t>zuu3210@gmail.com</t>
+  </si>
+  <si>
+    <t>이수원</t>
+  </si>
+  <si>
+    <t>chldmlgus12@naver.com</t>
+  </si>
+  <si>
+    <t>최의현</t>
+  </si>
+  <si>
+    <t>sinfkks@gmail.com</t>
+  </si>
+  <si>
+    <t>김경진</t>
+  </si>
+  <si>
+    <t>sun03353@gmail.com</t>
+  </si>
+  <si>
+    <t>ehddnr1884@naver.com</t>
   </si>
 </sst>
 </file>
@@ -4238,7 +5486,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4250,6 +5498,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -30635,6 +31886,8657 @@
         <v>22</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="2">
+        <v>45207.55027284722</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D639" s="3">
+        <v>2.0207089E7</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H639" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I639" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J639" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K639" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L639" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M639" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2">
+        <v>45207.55104446759</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D640" s="3">
+        <v>2.0222113E7</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H640" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I640" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J640" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K640" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L640" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N640" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2">
+        <v>45207.553491412036</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D641" s="3">
+        <v>2.0226403E7</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I641" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J641" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K641" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L641" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N641" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2">
+        <v>45207.559224791665</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D642" s="3">
+        <v>2.0193244E7</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H642" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I642" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J642" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K642" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L642" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M642" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2">
+        <v>45207.569480833336</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D643" s="3">
+        <v>2.0232827E7</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I643" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J643" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K643" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L643" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N643" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2">
+        <v>45207.578125949076</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D644" s="3">
+        <v>2.0231043E7</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H644" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I644" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J644" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K644" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L644" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M644" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2">
+        <v>45207.57999378472</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D645" s="3">
+        <v>2.0181605E7</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H645" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I645" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J645" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K645" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L645" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M645" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2">
+        <v>45207.584281874995</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D646" s="3">
+        <v>2.0232339E7</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I646" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J646" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K646" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L646" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N646" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2">
+        <v>45207.58443076389</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D647" s="3">
+        <v>2.0192607E7</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I647" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J647" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K647" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L647" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N647" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2">
+        <v>45207.58623564815</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D648" s="3">
+        <v>2.0236275E7</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F648" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I648" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J648" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K648" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L648" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N648" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2">
+        <v>45207.59041207176</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D649" s="3">
+        <v>2.0231037E7</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I649" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J649" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K649" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L649" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M649" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2">
+        <v>45207.594313043985</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D650" s="3">
+        <v>2.0192145E7</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F650" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I650" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J650" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K650" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L650" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N650" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2">
+        <v>45207.60063813657</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D651" s="3">
+        <v>2.0211706E7</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F651" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I651" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J651" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K651" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L651" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M651" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2">
+        <v>45207.60448197917</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D652" s="3">
+        <v>2.0197115E7</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F652" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I652" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J652" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K652" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L652" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N652" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2">
+        <v>45207.60490197917</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D653" s="3">
+        <v>2.0192622E7</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F653" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I653" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J653" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K653" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L653" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N653" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2">
+        <v>45207.604985</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D654" s="3">
+        <v>2.0196515E7</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H654" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I654" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J654" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K654" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L654" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M654" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2">
+        <v>45207.605313252316</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D655" s="3">
+        <v>2.0162617E7</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F655" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H655" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I655" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J655" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K655" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L655" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M655" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2">
+        <v>45207.605801631944</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D656" s="3">
+        <v>2.0232712E7</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F656" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H656" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I656" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J656" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K656" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L656" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M656" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2">
+        <v>45207.60811017361</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D657" s="3">
+        <v>2.0236302E7</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F657" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I657" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J657" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K657" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L657" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N657" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2">
+        <v>45207.61367232639</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D658" s="3">
+        <v>2.0234121E7</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F658" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I658" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J658" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K658" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L658" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N658" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2">
+        <v>45207.61827232639</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D659" s="3">
+        <v>2.0231224E7</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I659" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J659" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K659" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L659" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N659" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2">
+        <v>45207.62446364583</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D660" s="3">
+        <v>2.0222624E7</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H660" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I660" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J660" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K660" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L660" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N660" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2">
+        <v>45207.62496887731</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D661" s="3">
+        <v>2.0175224E7</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H661" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I661" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J661" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K661" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L661" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N661" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2">
+        <v>45207.62565920139</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D662" s="3">
+        <v>2.0191508E7</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H662" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I662" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J662" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K662" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L662" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M662" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2">
+        <v>45207.62900164352</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D663" s="3">
+        <v>2.0236261E7</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H663" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I663" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J663" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K663" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L663" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M663" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2">
+        <v>45207.63032795139</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D664" s="3">
+        <v>2.0232582E7</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H664" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I664" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J664" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K664" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L664" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N664" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2">
+        <v>45207.63236916666</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D665" s="3">
+        <v>2.0233534E7</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H665" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I665" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J665" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K665" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L665" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M665" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2">
+        <v>45207.632944074074</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D666" s="3">
+        <v>2.0213955E7</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H666" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I666" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J666" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K666" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L666" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M666" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2">
+        <v>45207.639836284725</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D667" s="3">
+        <v>2.0193009E7</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H667" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I667" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J667" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K667" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L667" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M667" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2">
+        <v>45207.64034388889</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D668" s="3">
+        <v>2.0217081E7</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H668" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I668" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J668" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K668" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L668" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M668" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2">
+        <v>45207.6405915625</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D669" s="3">
+        <v>2.0212611E7</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H669" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I669" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J669" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K669" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L669" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N669" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2">
+        <v>45207.647174004625</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D670" s="3">
+        <v>2.0207035E7</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H670" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I670" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J670" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K670" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L670" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N670" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2">
+        <v>45207.660348634265</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D671" s="3">
+        <v>2.0191002E7</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H671" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I671" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J671" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K671" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L671" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N671" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2">
+        <v>45207.66175295139</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D672" s="3">
+        <v>2.020641E7</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H672" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I672" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J672" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K672" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L672" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N672" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2">
+        <v>45207.67213769676</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D673" s="3">
+        <v>2.0192953E7</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H673" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I673" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J673" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K673" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L673" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N673" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2">
+        <v>45207.678772071755</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D674" s="3">
+        <v>2.0222122E7</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H674" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I674" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J674" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K674" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L674" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M674" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2">
+        <v>45207.68154263889</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D675" s="3">
+        <v>2.0192604E7</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H675" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I675" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J675" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K675" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L675" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M675" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2">
+        <v>45207.68430212963</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D676" s="3">
+        <v>2.0203639E7</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H676" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I676" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J676" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K676" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L676" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N676" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2">
+        <v>45207.68991273148</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D677" s="3">
+        <v>2.0233521E7</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H677" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I677" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J677" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K677" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L677" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N677" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2">
+        <v>45207.69020060185</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D678" s="3">
+        <v>2.0183829E7</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H678" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I678" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J678" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K678" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L678" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N678" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2">
+        <v>45207.693272372686</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D679" s="3">
+        <v>2.0233918E7</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H679" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I679" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J679" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K679" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L679" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M679" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2">
+        <v>45207.69369299768</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D680" s="3">
+        <v>2.0233915E7</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H680" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I680" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J680" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K680" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L680" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M680" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2">
+        <v>45207.699385879634</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D681" s="3">
+        <v>2.023513E7</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H681" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I681" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J681" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K681" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L681" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N681" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2">
+        <v>45207.70015009259</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D682" s="3">
+        <v>2.0233233E7</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F682" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H682" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I682" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J682" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K682" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L682" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N682" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2">
+        <v>45207.70046862269</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D683" s="3">
+        <v>2.0232357E7</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H683" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I683" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J683" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K683" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L683" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N683" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2">
+        <v>45207.703245462966</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D684" s="3">
+        <v>2.0221728E7</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H684" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I684" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J684" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K684" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L684" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N684" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2">
+        <v>45207.703501041666</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D685" s="3">
+        <v>2.0222559E7</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H685" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I685" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J685" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K685" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L685" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N685" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2">
+        <v>45207.70402306713</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D686" s="3">
+        <v>2.0231219E7</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H686" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I686" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J686" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K686" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L686" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N686" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2">
+        <v>45207.704762511574</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D687" s="3">
+        <v>2.023108E7</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H687" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I687" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J687" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K687" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L687" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M687" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2">
+        <v>45207.70844011574</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D688" s="3">
+        <v>2.0233212E7</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H688" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I688" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J688" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K688" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L688" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N688" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2">
+        <v>45207.7089003125</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D689" s="3">
+        <v>2.0202751E7</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H689" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I689" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J689" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K689" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L689" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N689" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2">
+        <v>45207.71250005787</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D690" s="3">
+        <v>2.0236225E7</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H690" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I690" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J690" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K690" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L690" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M690" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2">
+        <v>45207.716676944445</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D691" s="3">
+        <v>2.0182125E7</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H691" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I691" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J691" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K691" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L691" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M691" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2">
+        <v>45207.718578506945</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D692" s="3">
+        <v>2.0185138E7</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H692" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I692" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J692" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K692" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L692" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N692" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2">
+        <v>45207.71888811342</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D693" s="3">
+        <v>2.0213939E7</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H693" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I693" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J693" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K693" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L693" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N693" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2">
+        <v>45207.7205690625</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D694" s="3">
+        <v>2.0213732E7</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H694" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I694" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J694" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K694" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L694" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M694" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2">
+        <v>45207.72068168981</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D695" s="3">
+        <v>2.0233944E7</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H695" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I695" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J695" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K695" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L695" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N695" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2">
+        <v>45207.72796380787</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D696" s="3">
+        <v>2.0232737E7</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H696" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I696" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J696" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K696" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L696" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N696" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2">
+        <v>45207.729839583335</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D697" s="3">
+        <v>2.0231083E7</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H697" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I697" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J697" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K697" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L697" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N697" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2">
+        <v>45207.736542326384</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D698" s="3">
+        <v>2.0205164E7</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H698" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I698" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J698" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K698" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L698" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M698" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2">
+        <v>45207.74856674769</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D699" s="3">
+        <v>2.0236295E7</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F699" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H699" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I699" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J699" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K699" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L699" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M699" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2">
+        <v>45207.74876599537</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D700" s="3">
+        <v>2.0223409E7</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F700" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H700" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I700" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J700" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K700" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L700" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N700" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2">
+        <v>45207.75559368056</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D701" s="3">
+        <v>2.0222714E7</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F701" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H701" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I701" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J701" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K701" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L701" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N701" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2">
+        <v>45207.758473124995</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D702" s="3">
+        <v>2.0233247E7</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H702" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I702" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J702" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K702" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L702" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N702" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2">
+        <v>45207.760262129625</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D703" s="3">
+        <v>2.0226158E7</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F703" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H703" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I703" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J703" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K703" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L703" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N703" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2">
+        <v>45207.76137810185</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D704" s="3">
+        <v>2.0192535E7</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F704" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H704" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I704" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J704" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K704" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L704" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M704" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2">
+        <v>45207.762052418984</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D705" s="3">
+        <v>2.0205253E7</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F705" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H705" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I705" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J705" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K705" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L705" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N705" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2">
+        <v>45207.76210543982</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D706" s="3">
+        <v>2.0233734E7</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F706" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H706" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I706" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J706" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K706" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L706" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M706" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2">
+        <v>45207.763603935186</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D707" s="3">
+        <v>2.0225104E7</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H707" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I707" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J707" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K707" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L707" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N707" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2">
+        <v>45207.768241550926</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D708" s="3">
+        <v>2.0222986E7</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F708" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H708" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I708" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J708" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K708" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L708" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M708" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2">
+        <v>45207.78033862269</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D709" s="3">
+        <v>2.0232957E7</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F709" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H709" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I709" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J709" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K709" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L709" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N709" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2">
+        <v>45207.78164043982</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D710" s="3">
+        <v>2.0192638E7</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F710" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H710" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I710" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J710" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K710" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L710" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M710" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2">
+        <v>45207.781706828704</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D711" s="3">
+        <v>2.0233023E7</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H711" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I711" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J711" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K711" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L711" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N711" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2">
+        <v>45207.78565690972</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D712" s="3">
+        <v>2.0161723E7</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H712" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I712" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J712" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K712" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L712" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M712" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2">
+        <v>45207.786293530095</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D713" s="3">
+        <v>2.0235159E7</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H713" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I713" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J713" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K713" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L713" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M713" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2">
+        <v>45207.78973791667</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D714" s="3">
+        <v>2.0232574E7</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H714" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I714" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J714" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K714" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L714" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M714" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2">
+        <v>45207.79287740741</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D715" s="3">
+        <v>2.0233027E7</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H715" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I715" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J715" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K715" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L715" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N715" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2">
+        <v>45207.801051689814</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D716" s="3">
+        <v>2.0233232E7</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H716" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I716" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J716" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K716" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L716" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N716" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2">
+        <v>45207.80525798611</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D717" s="3">
+        <v>2.0236761E7</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H717" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I717" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J717" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K717" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L717" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N717" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2">
+        <v>45207.807521006944</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D718" s="3">
+        <v>2.0236722E7</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H718" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I718" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J718" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K718" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L718" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N718" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2">
+        <v>45207.81222125</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D719" s="3">
+        <v>2.0233852E7</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H719" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I719" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J719" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K719" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L719" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N719" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2">
+        <v>45207.815455358796</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D720" s="3">
+        <v>2.0236267E7</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H720" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I720" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J720" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K720" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L720" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M720" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2">
+        <v>45207.81634491898</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D721" s="3">
+        <v>2.0233703E7</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H721" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I721" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J721" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K721" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L721" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M721" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2">
+        <v>45207.821385497686</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D722" s="3">
+        <v>2.0236223E7</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H722" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I722" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J722" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K722" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L722" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N722" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2">
+        <v>45207.82227075232</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D723" s="3">
+        <v>2.0232214E7</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H723" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I723" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J723" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K723" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L723" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N723" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2">
+        <v>45207.825507256945</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D724" s="3">
+        <v>2.0222225E7</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H724" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I724" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J724" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K724" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L724" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M724" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2">
+        <v>45207.825805625005</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D725" s="3">
+        <v>2.019287E7</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H725" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I725" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J725" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K725" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L725" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N725" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2">
+        <v>45207.83027252315</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D726" s="3">
+        <v>2.0236645E7</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H726" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I726" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J726" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K726" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L726" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M726" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2">
+        <v>45207.83471137732</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D727" s="3">
+        <v>2.017542E7</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H727" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I727" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J727" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K727" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L727" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M727" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2">
+        <v>45207.83845747686</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D728" s="3">
+        <v>2.0192348E7</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H728" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I728" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J728" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K728" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L728" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M728" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2">
+        <v>45207.83930651621</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D729" s="3">
+        <v>2.0222347E7</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H729" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I729" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J729" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K729" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L729" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M729" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2">
+        <v>45207.8401446412</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D730" s="3">
+        <v>2.0232902E7</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H730" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I730" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J730" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K730" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L730" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M730" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2">
+        <v>45207.84133454861</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D731" s="3">
+        <v>2.0211726E7</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H731" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I731" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J731" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K731" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L731" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N731" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2">
+        <v>45207.84147313658</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D732" s="3">
+        <v>2.023292E7</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H732" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I732" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J732" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K732" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L732" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M732" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2">
+        <v>45207.842258854165</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D733" s="3">
+        <v>2.0236638E7</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H733" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I733" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J733" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K733" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L733" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M733" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2">
+        <v>45207.842855752315</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D734" s="3">
+        <v>2.023305E7</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F734" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H734" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I734" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J734" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K734" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L734" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N734" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2">
+        <v>45207.84453609954</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D735" s="3">
+        <v>2.023524E7</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F735" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H735" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I735" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J735" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K735" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L735" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M735" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2">
+        <v>45207.84715877315</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D736" s="3">
+        <v>2.0231217E7</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F736" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H736" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I736" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J736" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K736" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L736" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M736" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2">
+        <v>45207.85365508102</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D737" s="3">
+        <v>2.0223427E7</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H737" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I737" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J737" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K737" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L737" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N737" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2">
+        <v>45207.85520293981</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D738" s="3">
+        <v>2.0233246E7</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H738" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I738" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J738" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K738" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L738" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M738" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2">
+        <v>45207.85706912037</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D739" s="3">
+        <v>2.0213803E7</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H739" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I739" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J739" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K739" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L739" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M739" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2">
+        <v>45207.85915920138</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D740" s="3">
+        <v>2.0236716E7</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H740" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I740" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J740" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K740" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L740" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M740" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2">
+        <v>45207.86050461806</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D741" s="3">
+        <v>2.023527E7</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H741" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I741" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J741" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K741" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L741" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M741" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2">
+        <v>45207.86444873843</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D742" s="3">
+        <v>2.0233044E7</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H742" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I742" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J742" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K742" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L742" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N742" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2">
+        <v>45207.86638564814</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D743" s="3">
+        <v>2.0223639E7</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H743" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I743" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J743" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K743" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L743" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N743" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2">
+        <v>45207.86755303241</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D744" s="3">
+        <v>2.0235128E7</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H744" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I744" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J744" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K744" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L744" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N744" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2">
+        <v>45207.868905254625</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D745" s="3">
+        <v>2.0217132E7</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H745" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I745" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J745" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K745" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L745" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M745" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2">
+        <v>45207.86945349537</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D746" s="3">
+        <v>2.0232332E7</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H746" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I746" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J746" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K746" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L746" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M746" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2">
+        <v>45207.870971689816</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D747" s="3">
+        <v>2.0231213E7</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H747" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I747" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J747" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K747" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L747" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N747" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2">
+        <v>45207.87148261574</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D748" s="3">
+        <v>2.0226419E7</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H748" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I748" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J748" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K748" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L748" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M748" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2">
+        <v>45207.874245625004</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D749" s="3">
+        <v>2.0212212E7</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H749" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I749" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J749" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K749" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L749" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M749" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2">
+        <v>45207.87702510417</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D750" s="3">
+        <v>2.0182136E7</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H750" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I750" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J750" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K750" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L750" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M750" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2">
+        <v>45207.87869186343</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D751" s="3">
+        <v>2.0231617E7</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H751" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I751" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J751" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K751" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L751" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N751" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2">
+        <v>45207.880712557875</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D752" s="3">
+        <v>2.0183319E7</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H752" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I752" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J752" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K752" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L752" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N752" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2">
+        <v>45207.882956331014</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D753" s="3">
+        <v>2.0192225E7</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H753" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I753" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J753" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K753" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L753" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N753" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2">
+        <v>45207.887843460645</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D754" s="3">
+        <v>2.0233938E7</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H754" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I754" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J754" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K754" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L754" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N754" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2">
+        <v>45207.88842145834</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D755" s="3">
+        <v>2.0235183E7</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H755" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I755" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J755" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K755" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L755" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N755" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2">
+        <v>45207.89182423611</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D756" s="3">
+        <v>2.0235188E7</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H756" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I756" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J756" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K756" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L756" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M756" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2">
+        <v>45207.89286641203</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D757" s="3">
+        <v>2.0207067E7</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H757" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I757" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J757" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K757" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L757" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M757" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2">
+        <v>45207.89337513889</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D758" s="3">
+        <v>2.0193316E7</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H758" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I758" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J758" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K758" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L758" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N758" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2">
+        <v>45207.89414870371</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D759" s="3">
+        <v>2.0203842E7</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H759" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I759" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J759" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K759" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L759" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N759" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2">
+        <v>45207.89445619213</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D760" s="3">
+        <v>2.0233025E7</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F760" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H760" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I760" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J760" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K760" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L760" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N760" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2">
+        <v>45207.89510716435</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D761" s="3">
+        <v>2.0233257E7</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F761" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H761" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I761" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J761" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K761" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L761" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N761" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2">
+        <v>45207.895320763884</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D762" s="3">
+        <v>2.023321E7</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F762" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H762" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I762" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J762" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K762" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L762" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M762" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2">
+        <v>45207.900768865744</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D763" s="3">
+        <v>2.0206644E7</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F763" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H763" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I763" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J763" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K763" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L763" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N763" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2">
+        <v>45207.900844502314</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D764" s="3">
+        <v>2.0192818E7</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F764" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G764" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H764" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I764" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J764" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K764" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L764" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N764" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2">
+        <v>45207.90086760417</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D765" s="3">
+        <v>2.0226178E7</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H765" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I765" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J765" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K765" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L765" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N765" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2">
+        <v>45207.90312337963</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D766" s="3">
+        <v>2.023322E7</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F766" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G766" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H766" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I766" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J766" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K766" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L766" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N766" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2">
+        <v>45207.904061215275</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D767" s="3">
+        <v>2.0205252E7</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H767" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I767" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J767" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K767" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L767" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N767" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2">
+        <v>45207.90419185185</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D768" s="3">
+        <v>2.0217069E7</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F768" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G768" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H768" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I768" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J768" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K768" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L768" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N768" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2">
+        <v>45207.90728240741</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D769" s="3">
+        <v>2.0232917E7</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H769" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I769" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J769" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K769" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L769" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N769" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2">
+        <v>45207.908051018516</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D770" s="3">
+        <v>2.0235122E7</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F770" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G770" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H770" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I770" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J770" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K770" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L770" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M770" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2">
+        <v>45207.90982443287</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D771" s="3">
+        <v>2.0202711E7</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F771" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H771" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I771" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J771" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K771" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L771" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N771" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2">
+        <v>45207.912695833336</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D772" s="3">
+        <v>2.0172801E7</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F772" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G772" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H772" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I772" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J772" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K772" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L772" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N772" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2">
+        <v>45207.91271829861</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D773" s="3">
+        <v>2.0197132E7</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F773" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H773" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I773" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J773" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K773" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L773" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N773" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2">
+        <v>45207.91402125</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D774" s="3">
+        <v>2.0217086E7</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F774" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H774" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I774" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J774" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K774" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L774" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N774" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2">
+        <v>45207.91748846065</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D775" s="3">
+        <v>2.0233844E7</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G775" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H775" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I775" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J775" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K775" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L775" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M775" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2">
+        <v>45207.9179525</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D776" s="3">
+        <v>2.0225271E7</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F776" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G776" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H776" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I776" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J776" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K776" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L776" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M776" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2">
+        <v>45207.92042293982</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D777" s="3">
+        <v>2.0222579E7</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G777" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H777" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I777" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J777" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K777" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L777" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M777" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2">
+        <v>45207.92096405092</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D778" s="3">
+        <v>2.0222863E7</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F778" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G778" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H778" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I778" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J778" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K778" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L778" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N778" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2">
+        <v>45207.92493902778</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D779" s="3">
+        <v>2.0233215E7</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F779" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G779" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H779" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I779" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J779" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K779" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L779" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M779" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2">
+        <v>45207.92632428241</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D780" s="3">
+        <v>2.0236233E7</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F780" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G780" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H780" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I780" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J780" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K780" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L780" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M780" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2">
+        <v>45207.927671446756</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D781" s="3">
+        <v>2.0216289E7</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F781" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G781" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H781" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I781" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J781" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K781" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L781" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N781" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2">
+        <v>45207.92856789352</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D782" s="3">
+        <v>2.0215155E7</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F782" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G782" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H782" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I782" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J782" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K782" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L782" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M782" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2">
+        <v>45207.9286746412</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D783" s="3">
+        <v>2.0235142E7</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F783" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G783" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H783" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I783" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J783" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K783" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L783" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N783" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2">
+        <v>45207.93203107639</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D784" s="3">
+        <v>2.0224138E7</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F784" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G784" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H784" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I784" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J784" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K784" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L784" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N784" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2">
+        <v>45207.93637476852</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D785" s="3">
+        <v>2.0223608E7</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F785" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G785" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H785" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I785" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J785" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K785" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L785" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M785" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2">
+        <v>45207.93658395833</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D786" s="3">
+        <v>2.0236234E7</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F786" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G786" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H786" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I786" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J786" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K786" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L786" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M786" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2">
+        <v>45207.93808604167</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D787" s="3">
+        <v>2.0233834E7</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F787" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G787" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H787" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I787" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J787" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K787" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L787" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M787" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2">
+        <v>45207.93969398148</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D788" s="3">
+        <v>2.0231214E7</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F788" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G788" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H788" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I788" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J788" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K788" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L788" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N788" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2">
+        <v>45207.940063877315</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D789" s="3">
+        <v>2.0236237E7</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H789" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I789" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J789" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K789" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L789" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N789" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2">
+        <v>45207.94059616898</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D790" s="3">
+        <v>2.0203628E7</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G790" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H790" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I790" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J790" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K790" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L790" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M790" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2">
+        <v>45207.94109949074</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D791" s="3">
+        <v>2.0235201E7</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G791" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H791" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I791" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J791" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K791" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L791" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N791" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2">
+        <v>45207.94324502315</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D792" s="3">
+        <v>2.0235274E7</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G792" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H792" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I792" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J792" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K792" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L792" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M792" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2">
+        <v>45207.94644050926</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D793" s="3">
+        <v>2.0232307E7</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F793" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G793" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H793" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I793" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J793" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K793" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L793" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N793" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2">
+        <v>45207.94838134259</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D794" s="3">
+        <v>2.0217149E7</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H794" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I794" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J794" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K794" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L794" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M794" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2">
+        <v>45207.949104756946</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D795" s="3">
+        <v>2.0235271E7</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F795" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G795" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H795" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I795" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J795" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K795" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L795" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M795" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2">
+        <v>45207.950842129634</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D796" s="3">
+        <v>2.0232538E7</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F796" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H796" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I796" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J796" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K796" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L796" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N796" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2">
+        <v>45207.95106383102</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D797" s="3">
+        <v>2.0222102E7</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H797" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I797" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J797" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K797" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L797" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N797" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2">
+        <v>45207.951659108796</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D798" s="3">
+        <v>2.023123E7</v>
+      </c>
+      <c r="E798" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F798" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H798" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I798" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J798" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K798" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L798" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M798" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2">
+        <v>45207.95351262731</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D799" s="3">
+        <v>2.0221035E7</v>
+      </c>
+      <c r="E799" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F799" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G799" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H799" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I799" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J799" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K799" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L799" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M799" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2">
+        <v>45207.95487275463</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D800" s="3">
+        <v>2.0185288E7</v>
+      </c>
+      <c r="E800" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F800" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G800" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H800" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I800" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J800" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K800" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L800" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M800" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2">
+        <v>45207.955361875</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D801" s="3">
+        <v>2.0232593E7</v>
+      </c>
+      <c r="E801" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F801" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G801" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H801" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I801" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J801" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K801" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L801" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M801" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2">
+        <v>45207.95589924768</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D802" s="3">
+        <v>2.0233936E7</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F802" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G802" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H802" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I802" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J802" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K802" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L802" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N802" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2">
+        <v>45207.95780233796</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D803" s="3">
+        <v>2033326.0</v>
+      </c>
+      <c r="E803" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F803" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G803" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H803" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I803" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J803" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K803" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L803" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N803" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2">
+        <v>45207.95863724537</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D804" s="3">
+        <v>2.0193532E7</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G804" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H804" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I804" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J804" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K804" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L804" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N804" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2">
+        <v>45207.959151724535</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D805" s="3">
+        <v>2.0185242E7</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H805" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I805" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J805" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K805" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L805" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N805" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2">
+        <v>45207.96129708333</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D806" s="3">
+        <v>2.0235213E7</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G806" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H806" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I806" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J806" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K806" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L806" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M806" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2">
+        <v>45207.96173263889</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D807" s="3">
+        <v>2.0193917E7</v>
+      </c>
+      <c r="E807" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G807" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H807" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I807" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J807" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K807" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L807" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M807" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2">
+        <v>45207.96174375</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D808" s="3">
+        <v>2.023323E7</v>
+      </c>
+      <c r="E808" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F808" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G808" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H808" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I808" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J808" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K808" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L808" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M808" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2">
+        <v>45207.96248555556</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D809" s="3">
+        <v>2.0233632E7</v>
+      </c>
+      <c r="E809" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F809" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G809" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H809" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I809" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J809" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K809" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L809" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N809" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2">
+        <v>45207.96306770833</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D810" s="3">
+        <v>2.0185168E7</v>
+      </c>
+      <c r="E810" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F810" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G810" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H810" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I810" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J810" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K810" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L810" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N810" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2">
+        <v>45207.96387244213</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D811" s="3">
+        <v>2.0232977E7</v>
+      </c>
+      <c r="E811" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G811" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H811" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I811" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J811" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K811" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L811" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M811" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2">
+        <v>45207.96408831018</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D812" s="3">
+        <v>2.0235193E7</v>
+      </c>
+      <c r="E812" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F812" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G812" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H812" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I812" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J812" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K812" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L812" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M812" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2">
+        <v>45207.96818465278</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D813" s="3">
+        <v>2.023231E7</v>
+      </c>
+      <c r="E813" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F813" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G813" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H813" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I813" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J813" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K813" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L813" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N813" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2">
+        <v>45207.96847453703</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D814" s="3">
+        <v>2.021662E7</v>
+      </c>
+      <c r="E814" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F814" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H814" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I814" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J814" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K814" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L814" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N814" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2">
+        <v>45207.96978046296</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D815" s="3">
+        <v>2.0236227E7</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F815" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G815" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H815" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I815" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J815" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K815" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L815" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N815" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2">
+        <v>45207.97066143519</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D816" s="3">
+        <v>2.0212561E7</v>
+      </c>
+      <c r="E816" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F816" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G816" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H816" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I816" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J816" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K816" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L816" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N816" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2">
+        <v>45207.97100127315</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D817" s="3">
+        <v>2.022517E7</v>
+      </c>
+      <c r="E817" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F817" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G817" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H817" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I817" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J817" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K817" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L817" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N817" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2">
+        <v>45207.97115652778</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D818" s="3">
+        <v>2.020241E7</v>
+      </c>
+      <c r="E818" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F818" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G818" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H818" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I818" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J818" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K818" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L818" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N818" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2">
+        <v>45207.971263576386</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D819" s="3">
+        <v>2.0232351E7</v>
+      </c>
+      <c r="E819" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F819" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G819" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H819" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I819" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J819" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K819" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L819" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N819" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2">
+        <v>45207.97336059027</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D820" s="3">
+        <v>2.0232961E7</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F820" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G820" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H820" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I820" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J820" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K820" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L820" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M820" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2">
+        <v>45207.975360219905</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D821" s="3">
+        <v>2.0232314E7</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F821" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G821" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H821" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I821" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J821" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K821" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L821" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M821" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2">
+        <v>45207.976601898146</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D822" s="3">
+        <v>2.0233417E7</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F822" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H822" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I822" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J822" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K822" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L822" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M822" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2">
+        <v>45207.97774928241</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D823" s="3">
+        <v>2.0212913E7</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H823" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I823" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J823" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K823" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L823" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N823" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2">
+        <v>45207.98039116898</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D824" s="3">
+        <v>2.0212932E7</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G824" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H824" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I824" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J824" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K824" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L824" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M824" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2">
+        <v>45207.98044076389</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D825" s="3">
+        <v>2.0236728E7</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H825" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I825" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J825" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K825" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L825" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M825" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2">
+        <v>45207.98057728009</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D826" s="3">
+        <v>2.0232568E7</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G826" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H826" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I826" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J826" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K826" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L826" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N826" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2">
+        <v>45207.981869814816</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D827" s="3">
+        <v>2.0232437E7</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F827" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G827" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H827" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I827" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J827" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K827" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L827" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N827" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2">
+        <v>45207.98220672454</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D828" s="3">
+        <v>2.0221043E7</v>
+      </c>
+      <c r="E828" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F828" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H828" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I828" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J828" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K828" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L828" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N828" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2">
+        <v>45207.98244920139</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D829" s="3">
+        <v>2.0205248E7</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F829" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G829" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H829" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I829" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J829" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K829" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L829" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N829" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2">
+        <v>45207.983663148145</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D830" s="3">
+        <v>2.0232317E7</v>
+      </c>
+      <c r="E830" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F830" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G830" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H830" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I830" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J830" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K830" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L830" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N830" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2">
+        <v>45207.9839302662</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D831" s="3">
+        <v>2.0226152E7</v>
+      </c>
+      <c r="E831" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F831" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G831" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H831" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I831" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J831" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K831" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L831" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M831" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2">
+        <v>45207.98428222223</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D832" s="3">
+        <v>2.0236241E7</v>
+      </c>
+      <c r="E832" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F832" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G832" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H832" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I832" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J832" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K832" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L832" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M832" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2">
+        <v>45207.98445362269</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C833" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D833" s="3">
+        <v>2.023124E7</v>
+      </c>
+      <c r="E833" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F833" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G833" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H833" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I833" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J833" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K833" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L833" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N833" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2">
+        <v>45207.98447319445</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D834" s="3">
+        <v>2.0232104E7</v>
+      </c>
+      <c r="E834" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F834" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H834" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I834" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J834" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K834" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L834" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N834" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2">
+        <v>45207.98462215278</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C835" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D835" s="3">
+        <v>2.017272E7</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F835" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G835" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H835" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I835" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J835" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K835" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L835" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M835" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2">
+        <v>45207.98882979166</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D836" s="3">
+        <v>2.0173026E7</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F836" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G836" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H836" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I836" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J836" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K836" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L836" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N836" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2">
+        <v>45207.989035949075</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D837" s="3">
+        <v>2.0233234E7</v>
+      </c>
+      <c r="E837" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F837" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G837" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H837" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I837" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J837" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K837" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L837" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M837" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2">
+        <v>45207.989610046294</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D838" s="3">
+        <v>2.0235261E7</v>
+      </c>
+      <c r="E838" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F838" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G838" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H838" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I838" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J838" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K838" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L838" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M838" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2">
+        <v>45207.99056481481</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D839" s="3">
+        <v>2.0225225E7</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F839" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G839" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H839" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I839" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J839" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K839" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L839" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N839" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2">
+        <v>45207.9926657176</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D840" s="3">
+        <v>2.0232588E7</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F840" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G840" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H840" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I840" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J840" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K840" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L840" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N840" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2">
+        <v>45207.993529432875</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D841" s="3">
+        <v>2.0226214E7</v>
+      </c>
+      <c r="E841" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F841" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G841" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H841" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I841" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J841" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K841" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L841" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N841" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2">
+        <v>45207.99418498843</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D842" s="3">
+        <v>2.0183401E7</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F842" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G842" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H842" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I842" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J842" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K842" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L842" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M842" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2">
+        <v>45207.995181921295</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D843" s="3">
+        <v>2.0231079E7</v>
+      </c>
+      <c r="E843" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F843" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G843" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H843" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I843" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J843" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K843" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L843" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M843" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2">
+        <v>45207.99525586805</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D844" s="3">
+        <v>2.0192213E7</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F844" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G844" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H844" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I844" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J844" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K844" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L844" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N844" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2">
+        <v>45207.99547326389</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D845" s="3">
+        <v>2.018263E7</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F845" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G845" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H845" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I845" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J845" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K845" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L845" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M845" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2">
+        <v>45207.99658377314</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C846" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D846" s="3">
+        <v>2.0191731E7</v>
+      </c>
+      <c r="E846" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F846" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G846" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H846" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I846" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J846" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K846" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L846" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M846" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2">
+        <v>45207.99809346064</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D847" s="3">
+        <v>2.0233304E7</v>
+      </c>
+      <c r="E847" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F847" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G847" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H847" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I847" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J847" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K847" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L847" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N847" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2">
+        <v>45207.99918125</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C848" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D848" s="3">
+        <v>2.0233013E7</v>
+      </c>
+      <c r="E848" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F848" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G848" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H848" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I848" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J848" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K848" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L848" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M848" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2">
+        <v>45207.99918380787</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D849" s="3">
+        <v>2.0233225E7</v>
+      </c>
+      <c r="E849" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F849" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G849" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H849" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I849" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J849" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K849" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L849" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M849" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
